--- a/BARU/2023/09 SEPTEMBER/KELUAR 09.xlsx
+++ b/BARU/2023/09 SEPTEMBER/KELUAR 09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <definedName name="pointer">PAJAK!$H$3</definedName>
     <definedName name="ponter">PAJAK!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="306">
   <si>
     <t>Column1</t>
   </si>
@@ -836,6 +836,120 @@
   </si>
   <si>
     <t>CUTTER 18 MM KENKO L-500 (BESAR)</t>
+  </si>
+  <si>
+    <t>3787</t>
+  </si>
+  <si>
+    <t>PWJK12WPANJANG</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-12PB (PANJANG)</t>
+  </si>
+  <si>
+    <t>3828</t>
+  </si>
+  <si>
+    <t>CLIKEN107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CLIKEN111</t>
+  </si>
+  <si>
+    <t>CLIKEN200</t>
+  </si>
+  <si>
+    <t>LEMKENLG50</t>
+  </si>
+  <si>
+    <t>STIJK40HITAM</t>
+  </si>
+  <si>
+    <t>LLKENA550</t>
+  </si>
+  <si>
+    <t>PLAKKENBENING</t>
+  </si>
+  <si>
+    <t>PENJKGP243</t>
+  </si>
+  <si>
+    <t>PENJKBP349</t>
+  </si>
+  <si>
+    <t>LLKENA5100</t>
+  </si>
+  <si>
+    <t>BKKASKWARTO</t>
+  </si>
+  <si>
+    <t>PLAKBAND BENING 80 M KENKO 48 MM RED CORE</t>
+  </si>
+  <si>
+    <t>BINDER CLIP KENKO NO. 107</t>
+  </si>
+  <si>
+    <t>BINDER CLIP KENKO NO. 111</t>
+  </si>
+  <si>
+    <t>BINDER CLIP KENKO NO. 200</t>
+  </si>
+  <si>
+    <t>LEM CAIR 50 ML KENKO LG-50</t>
+  </si>
+  <si>
+    <t>LOOSE LEAF KENKO A5-LL 50-2070</t>
+  </si>
+  <si>
+    <t>LOOSE LEAF KENKO A5-LL 100-2070</t>
+  </si>
+  <si>
+    <t>BUKU KAS KWARTO</t>
+  </si>
+  <si>
+    <t>GEL PEN JOYKO GP-243 WHIZ GEL</t>
+  </si>
+  <si>
+    <t>BALLPEN JOYKO BP-349-12 VOKUS TRANS</t>
+  </si>
+  <si>
+    <t>STIJK40PUTIH</t>
+  </si>
+  <si>
+    <t>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</t>
+  </si>
+  <si>
+    <t>3791</t>
+  </si>
+  <si>
+    <t>HIGHLIGHTER / STABILO KENKO HL-100 HIJAU</t>
+  </si>
+  <si>
+    <t>HIGHLIGHTER / STABILO KENKO HL-100 KUNING</t>
+  </si>
+  <si>
+    <t>HIGHLIGHTER / STABILO KENKO HL-100 UNGU</t>
+  </si>
+  <si>
+    <t>HIGHLIGHTER / STABILO KENKO HL-100 PINK</t>
+  </si>
+  <si>
+    <t>3780</t>
+  </si>
+  <si>
+    <t>GUNKENSC828</t>
+  </si>
+  <si>
+    <t>PENJKGP265</t>
+  </si>
+  <si>
+    <t>GUNTING KENKO SC-828</t>
+  </si>
+  <si>
+    <t>GEL PEN JOYKO GP-265 Q-GEL</t>
   </si>
 </sst>
 </file>
@@ -2028,6 +2142,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2202,1044 +2340,12 @@
     <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="107">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3357,21 +2463,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3395,21 +2513,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3433,6 +2563,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3448,6 +2609,137 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3498,6 +2790,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3521,21 +2875,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3559,6 +2925,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3566,6 +2963,7 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3573,6 +2971,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3612,10 +3040,121 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3639,6 +3178,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3654,6 +3224,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3677,6 +3278,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3691,6 +3322,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3736,10 +3398,70 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3762,6 +3484,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3780,6 +3532,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3791,6 +3573,81 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3817,6 +3674,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3836,21 +3724,32 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3896,10 +3795,71 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3949,6 +3909,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3989,10 +4011,72 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4080,7 +4164,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="106"/>
+      <tableStyleElement type="totalRow" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4935,22 +5019,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45192.599667708331" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="269">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45198.385227430554" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="269">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="79" count="26">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="103" count="30">
         <s v=""/>
         <n v="4"/>
         <n v="7"/>
@@ -4972,6 +5056,10 @@
         <n v="68"/>
         <n v="70"/>
         <n v="79"/>
+        <n v="82"/>
+        <n v="84"/>
+        <n v="98"/>
+        <n v="103"/>
         <n v="42" u="1"/>
         <n v="44" u="1"/>
         <n v="46" u="1"/>
@@ -4980,13 +5068,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23090001" maxValue="23090020"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23090001" maxValue="23090024"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-09-04T00:00:00" maxDate="2023-09-24T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-09-04T00:00:00" maxDate="2023-09-28T00:00:00"/>
     </cacheField>
     <cacheField name="Column2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="23"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="27"/>
     </cacheField>
     <cacheField name="Column3" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5013,7 +5101,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="C" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="h_Item Description" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5034,7 +5122,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Amount" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="95040" maxValue="15120000"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="50940" maxValue="15120000"/>
     </cacheField>
     <cacheField name="pembuat nota :" numFmtId="43">
       <sharedItems containsBlank="1"/>
@@ -5043,13 +5131,13 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="79"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="103"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
     </cacheField>
     <cacheField name="h_hargasebelumdiskon" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="105600" maxValue="17280000"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="56600" maxValue="17280000"/>
     </cacheField>
     <cacheField name="h_disc 1" numFmtId="43">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="2160000"/>
@@ -5061,7 +5149,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="2160000"/>
     </cacheField>
     <cacheField name="h_hargasetelahdiskon" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="95040" maxValue="15120000"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="50940" maxValue="15120000"/>
     </cacheField>
     <cacheField name="Total Invoice" numFmtId="43">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="340000" maxValue="35472500"/>
@@ -7770,38 +7858,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="21"/>
+    <n v="23090021"/>
+    <d v="2023-09-26T00:00:00"/>
+    <n v="26"/>
+    <s v="G"/>
+    <s v="3787"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23090021"/>
+    <s v="G 3787"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="432"/>
+    <s v="PCS"/>
+    <n v="3"/>
+    <s v="PWJK12WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <n v="10600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4006800"/>
+    <s v="RISMA / CONDRO"/>
+    <m/>
+    <n v="82"/>
+    <n v="1"/>
+    <n v="4579200"/>
+    <n v="572400"/>
+    <n v="0"/>
+    <n v="572400"/>
+    <n v="4006800"/>
+    <n v="4006800"/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS10600"/>
   </r>
   <r>
     <x v="0"/>
@@ -7838,38 +7926,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="22"/>
+    <n v="23090022"/>
+    <d v="2023-09-26T00:00:00"/>
+    <n v="26"/>
+    <s v="KO"/>
+    <s v="3828"/>
+    <s v="NIRMALA"/>
+    <s v="AM 23090022"/>
+    <s v="KO 3828"/>
+    <s v="CV SINAR CAHAYA NIRMALA BREBES"/>
+    <n v="3"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENJKGP243"/>
+    <s v="GEL PEN JOYKO GP-243 WHIZ GEL HITAM"/>
+    <s v="GEL PEN JOYKO GP-243 WHIZ GEL"/>
+    <n v="24600"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="66420"/>
+    <s v="RISMA / CONDRO"/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="73800"/>
+    <n v="7380"/>
+    <n v="0"/>
+    <n v="7380"/>
+    <n v="66420"/>
+    <n v="1725035"/>
+    <m/>
+    <s v="GEL PEN JOYKO GP-243 WHIZ GELLSN24600"/>
   </r>
   <r>
     <x v="0"/>
@@ -7882,28 +7970,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="6"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENJKBP349"/>
+    <s v="BALLPEN JOYKO BP-349-12 VOKUS TRANS HITAM (BONUS)"/>
+    <s v="BALLPEN JOYKO BP-349-12 VOKUS TRANS"/>
+    <n v="13200"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="71280"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="79200"/>
+    <n v="7920"/>
+    <n v="0"/>
+    <n v="7920"/>
+    <n v="71280"/>
+    <s v=""/>
+    <m/>
+    <s v="BALLPEN JOYKO BP-349-12 VOKUS TRANSLSN13200"/>
   </r>
   <r>
     <x v="0"/>
@@ -7916,28 +8004,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="GRS"/>
+    <m/>
+    <s v="CLIKEN107"/>
+    <s v="BINDER CLIP KENKO NO. 107"/>
+    <s v="BINDER CLIP KENKO NO. 107"/>
+    <n v="31800"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="57240"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="63600"/>
+    <n v="6360"/>
+    <n v="0"/>
+    <n v="6360"/>
+    <n v="57240"/>
+    <s v=""/>
+    <m/>
+    <s v="BINDER CLIP KENKO NO. 107GRS31800"/>
   </r>
   <r>
     <x v="0"/>
@@ -7950,28 +8038,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="GRS"/>
+    <s v=" "/>
+    <s v="CLIKEN111"/>
+    <s v="BINDER CLIP KENKO NO. 111"/>
+    <s v="BINDER CLIP KENKO NO. 111"/>
+    <n v="49200"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="88560"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="98400"/>
+    <n v="9840"/>
+    <n v="0"/>
+    <n v="9840"/>
+    <n v="88560"/>
+    <s v=""/>
+    <m/>
+    <s v="BINDER CLIP KENKO NO. 111GRS49200"/>
   </r>
   <r>
     <x v="0"/>
@@ -7984,28 +8072,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="GRS"/>
+    <m/>
+    <s v="CLIKEN200"/>
+    <s v="BINDER CLIP KENKO NO. 200"/>
+    <s v="BINDER CLIP KENKO NO. 200"/>
+    <n v="120000"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="216000"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="240000"/>
+    <n v="24000"/>
+    <n v="0"/>
+    <n v="24000"/>
+    <n v="216000"/>
+    <s v=""/>
+    <m/>
+    <s v="BINDER CLIP KENKO NO. 200GRS120000"/>
   </r>
   <r>
     <x v="0"/>
@@ -8018,28 +8106,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="3"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="LEMKENLG35"/>
+    <s v="LEM CAIR 35 ML KENKO LG-35"/>
+    <s v="LEM CAIR 35 ML KENKO LG-35"/>
+    <n v="19800"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="53460"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="59400"/>
+    <n v="5940"/>
+    <n v="0"/>
+    <n v="5940"/>
+    <n v="53460"/>
+    <s v=""/>
+    <m/>
+    <s v="LEM CAIR 35 ML KENKO LG-35LSN19800"/>
   </r>
   <r>
     <x v="0"/>
@@ -8052,28 +8140,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="3"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="LEMKENLG50"/>
+    <s v="LEM CAIR 50 ML KENKO LG-50"/>
+    <s v="LEM CAIR 50 ML KENKO LG-50"/>
+    <n v="25200"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="68040"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="75600"/>
+    <n v="7560"/>
+    <n v="0"/>
+    <n v="7560"/>
+    <n v="68040"/>
+    <s v=""/>
+    <m/>
+    <s v="LEM CAIR 50 ML KENKO LG-50LSN25200"/>
   </r>
   <r>
     <x v="0"/>
@@ -8086,28 +8174,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="BOX"/>
+    <m/>
+    <s v="STIJK40HITAM"/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40BL HITAM"/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40BL HITAM"/>
+    <n v="28300"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="50940"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="56600"/>
+    <n v="5660"/>
+    <n v="0"/>
+    <n v="5660"/>
+    <n v="50940"/>
+    <s v=""/>
+    <m/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40BL HITAMBOX28300"/>
   </r>
   <r>
     <x v="0"/>
@@ -8120,28 +8208,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="2"/>
+    <s v="BOX"/>
+    <m/>
+    <s v="STIJK40PUTIH"/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIH"/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIH"/>
+    <n v="28300"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="50940"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="56600"/>
+    <n v="5660"/>
+    <n v="0"/>
+    <n v="5660"/>
+    <n v="50940"/>
+    <s v=""/>
+    <m/>
+    <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIHBOX28300"/>
   </r>
   <r>
     <x v="0"/>
@@ -8154,28 +8242,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="18"/>
+    <s v="PAK"/>
+    <m/>
+    <s v="LLKENA550"/>
+    <s v="LOOSE LEAF KENKO A5-LL 50-2070"/>
+    <s v="LOOSE LEAF KENKO A5-LL 50-2070"/>
+    <n v="4400"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="71280"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="79200"/>
+    <n v="7920"/>
+    <n v="0"/>
+    <n v="7920"/>
+    <n v="71280"/>
+    <s v=""/>
+    <m/>
+    <s v="LOOSE LEAF KENKO A5-LL 50-2070PAK4400"/>
   </r>
   <r>
     <x v="0"/>
@@ -8188,28 +8276,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="25"/>
+    <s v="PAK"/>
+    <m/>
+    <s v="LLKENA5100"/>
+    <s v="LOOSE LEAF KENKO A5-LL 100-2070"/>
+    <s v="LOOSE LEAF KENKO A5-LL 100-2070"/>
+    <n v="8350"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="187875"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="208750"/>
+    <n v="20875"/>
+    <n v="0"/>
+    <n v="20875"/>
+    <n v="187875"/>
+    <s v=""/>
+    <m/>
+    <s v="LOOSE LEAF KENKO A5-LL 100-2070PAK8350"/>
   </r>
   <r>
     <x v="0"/>
@@ -8222,28 +8310,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="10"/>
+    <s v="PCS"/>
+    <m/>
+    <s v="BKKASKWARTO"/>
+    <s v="BUKU KAS KWARTO"/>
+    <s v="BUKU KAS KWARTO"/>
+    <n v="9500"/>
+    <m/>
+    <m/>
+    <n v="95000"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="95000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="95000"/>
+    <s v=""/>
+    <m/>
+    <s v="BUKU KAS KWARTOPCS9500"/>
   </r>
   <r>
     <x v="0"/>
@@ -8256,28 +8344,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="ROL"/>
+    <n v="1"/>
+    <s v="PLAKKENBENING"/>
+    <e v="#N/A"/>
+    <s v="PLAKBAND BENING 80 M KENKO 48 MM RED CORE"/>
+    <n v="10000"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="648000"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="13"/>
+    <n v="720000"/>
+    <n v="72000"/>
+    <n v="0"/>
+    <n v="72000"/>
+    <n v="648000"/>
+    <s v=""/>
+    <m/>
+    <s v="PLAKBAND BENING 80 M KENKO 48 MM RED COREROL10000"/>
   </r>
   <r>
     <x v="0"/>
@@ -8314,38 +8402,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="23"/>
+    <n v="23090023"/>
+    <d v="2023-09-27T00:00:00"/>
+    <n v="27"/>
+    <s v="KO"/>
+    <s v="3791"/>
+    <s v="BENDAN"/>
+    <s v="AM 23090023"/>
+    <s v="KO 3791"/>
+    <s v="HARNOYO (BENDAN) PEKALONGAN"/>
+    <n v="50"/>
+    <s v="PCS"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 UNGU"/>
+    <n v="3050"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="131150"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="98"/>
+    <n v="4"/>
+    <n v="152500"/>
+    <n v="21350.000000000004"/>
+    <n v="0"/>
+    <n v="21350.000000000004"/>
+    <n v="131150"/>
+    <n v="1075430"/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 UNGUPCS3050"/>
   </r>
   <r>
     <x v="0"/>
@@ -8358,28 +8446,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="120"/>
+    <s v="PCS"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 HIJAU"/>
+    <n v="3050"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="314760"/>
+    <m/>
+    <m/>
+    <n v="98"/>
+    <n v="4"/>
+    <n v="366000"/>
+    <n v="51240.000000000007"/>
+    <n v="0"/>
+    <n v="51240.000000000007"/>
+    <n v="314760"/>
+    <s v=""/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 HIJAUPCS3050"/>
   </r>
   <r>
     <x v="0"/>
@@ -8392,28 +8480,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="120"/>
+    <s v="PCS"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 KUNING"/>
+    <n v="3050"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="314760"/>
+    <m/>
+    <m/>
+    <n v="98"/>
+    <n v="4"/>
+    <n v="366000"/>
+    <n v="51240.000000000007"/>
+    <n v="0"/>
+    <n v="51240.000000000007"/>
+    <n v="314760"/>
+    <s v=""/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 KUNINGPCS3050"/>
   </r>
   <r>
     <x v="0"/>
@@ -8426,28 +8514,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="120"/>
+    <s v="PCS"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 PINK"/>
+    <n v="3050"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="314760"/>
+    <m/>
+    <m/>
+    <n v="98"/>
+    <n v="4"/>
+    <n v="366000"/>
+    <n v="51240.000000000007"/>
+    <n v="0"/>
+    <n v="51240.000000000007"/>
+    <n v="314760"/>
+    <s v=""/>
+    <m/>
+    <s v="HIGHLIGHTER / STABILO KENKO HL-100 PINKPCS3050"/>
   </r>
   <r>
     <x v="0"/>
@@ -8484,38 +8572,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="24"/>
+    <n v="23090024"/>
+    <d v="2023-09-27T00:00:00"/>
+    <n v="27"/>
+    <s v="KO"/>
+    <s v="3780"/>
+    <s v="DWIJAYA"/>
+    <s v="AM 23090024"/>
+    <s v="KO 3780"/>
+    <s v="CV DWI JAYA YOGYAKARTA"/>
+    <n v="6"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="GUNKENSC828"/>
+    <s v="GUNTING KENKO SC-828"/>
+    <s v="GUNTING KENKO SC-828"/>
+    <n v="56400"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="304560"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="103"/>
+    <n v="4"/>
+    <n v="338400"/>
+    <n v="33840"/>
+    <n v="0"/>
+    <n v="33840"/>
+    <n v="304560"/>
+    <n v="2300400"/>
+    <m/>
+    <s v="GUNTING KENKO SC-828LSN56400"/>
   </r>
   <r>
     <x v="0"/>
@@ -8528,28 +8616,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="24"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENJKGP265"/>
+    <s v="GEL PEN JOYKO GP-265 Q-GEL"/>
+    <s v="GEL PEN JOYKO GP-265 Q-GEL"/>
+    <n v="28200"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="609120"/>
+    <m/>
+    <m/>
+    <n v="103"/>
+    <n v="4"/>
+    <n v="676800"/>
+    <n v="67680"/>
+    <n v="0"/>
+    <n v="67680"/>
+    <n v="609120"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN JOYKO GP-265 Q-GELLSN28200"/>
   </r>
   <r>
     <x v="0"/>
@@ -8562,28 +8650,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="4"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="CUTKENL500"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <n v="147600"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="531360"/>
+    <m/>
+    <m/>
+    <n v="103"/>
+    <n v="4"/>
+    <n v="590400"/>
+    <n v="59040"/>
+    <n v="0"/>
+    <n v="59040"/>
+    <n v="531360"/>
+    <s v=""/>
+    <m/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)LSN147600"/>
   </r>
   <r>
     <x v="0"/>
@@ -8596,28 +8684,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="24"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PENKENK1HITAM"/>
+    <s v="GEL PEN KENKO K-1 HITAM"/>
+    <s v="GEL PEN KENKO K-1 HITAM"/>
+    <n v="39600"/>
+    <n v="0.1"/>
+    <m/>
+    <n v="855360"/>
+    <m/>
+    <m/>
+    <n v="103"/>
+    <n v="4"/>
+    <n v="950400"/>
+    <n v="95040"/>
+    <n v="0"/>
+    <n v="95040"/>
+    <n v="855360"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN KENKO K-1 HITAMLSN39600"/>
   </r>
   <r>
     <x v="0"/>
@@ -8701,8 +8789,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <s v=""/>
+    <s v="scan"/>
+    <e v="#N/A"/>
     <m/>
     <m/>
     <m/>
@@ -14233,13 +14321,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="27">
+      <items count="31">
         <item x="1"/>
-        <item m="1" x="24"/>
+        <item m="1" x="28"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14250,19 +14338,23 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="21"/>
+        <item m="1" x="25"/>
         <item x="12"/>
-        <item m="1" x="22"/>
+        <item m="1" x="26"/>
         <item x="13"/>
-        <item m="1" x="23"/>
+        <item m="1" x="27"/>
         <item x="14"/>
-        <item m="1" x="25"/>
+        <item m="1" x="29"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -14302,7 +14394,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -14366,6 +14458,18 @@
     <i>
       <x v="25"/>
     </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14374,10 +14478,10 @@
     <i/>
   </colItems>
   <formats count="2">
-    <format dxfId="67">
+    <format dxfId="29">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -14397,73 +14501,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF272" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF272" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
   <autoFilter ref="A2:AF271"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="101" totalsRowDxfId="33">
+    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="100" totalsRowDxfId="32">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="99" totalsRowDxfId="31">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column2" dataDxfId="98" totalsRowDxfId="30"/>
-    <tableColumn id="17" name="Column3" dataDxfId="97" totalsRowDxfId="29"/>
-    <tableColumn id="19" name="Column4" dataDxfId="96" totalsRowDxfId="28"/>
-    <tableColumn id="20" name="Column5" dataDxfId="95" totalsRowDxfId="27"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="94" totalsRowDxfId="26">
+    <tableColumn id="32" name="Column2" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="17" name="Column3" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="19" name="Column4" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="20" name="Column5" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="93" totalsRowDxfId="25">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="92" totalsRowDxfId="24">
+    <tableColumn id="4" name="Toko" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="91" totalsRowDxfId="23"/>
-    <tableColumn id="6" name="Unit" dataDxfId="90" totalsRowDxfId="22"/>
-    <tableColumn id="7" name="C" dataDxfId="89" totalsRowDxfId="21"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="88" totalsRowDxfId="20"/>
-    <tableColumn id="10" name="Column1" dataDxfId="87" totalsRowDxfId="19">
+    <tableColumn id="5" name="Qty" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="6" name="Unit" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="7" name="C" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="10" name="Column1" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="86" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="85" totalsRowDxfId="17"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="84" totalsRowDxfId="16"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="83" totalsRowDxfId="15"/>
-    <tableColumn id="23" name="Amount" dataDxfId="82" totalsRowDxfId="14">
+    <tableColumn id="9" name="Item Description" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="23" name="Amount" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="81" totalsRowDxfId="13"/>
-    <tableColumn id="15" name="edited :" dataDxfId="80" totalsRowDxfId="12"/>
-    <tableColumn id="21" name="h_id" dataDxfId="79" totalsRowDxfId="11">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="15" name="edited :" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="21" name="h_id" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="78" totalsRowDxfId="10">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="77" totalsRowDxfId="9">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="76" totalsRowDxfId="8">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="75" totalsRowDxfId="7">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="74" totalsRowDxfId="6">
+    <tableColumn id="25" name="h_diskon" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="73" totalsRowDxfId="5">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="72" totalsRowDxfId="4">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="71" totalsRowDxfId="3"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="70" totalsRowDxfId="2">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14472,74 +14576,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="D4:P57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="64">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="26">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($D$1:$D$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="63">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="25">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="62">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="24">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="61">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="23">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="60">
+    <tableColumn id="5" name="Toko" dataDxfId="22">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="49">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="11">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="48">
+    <tableColumn id="15" name="edited" dataDxfId="10">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="47"/>
+    <tableColumn id="12" name="4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="R4:X57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="45">
+    <tableColumn id="8" name="AM" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="44">
+    <tableColumn id="2" name="---" dataDxfId="6">
       <calculatedColumnFormula>S$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="43">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="5">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="42">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="4">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="41">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="3">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="40">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="2">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="39">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="1">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14558,7 +14662,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="38">
+    <tableColumn id="5" name="e" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14856,8 +14960,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF272"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="M33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22114,76 +22218,110 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="287" t="str">
+      <c r="A82" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B82" s="287" t="str">
+        <v>82</v>
+      </c>
+      <c r="B82" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C82" s="281" t="str">
+        <v>23090021</v>
+      </c>
+      <c r="C82" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45195</v>
+      </c>
+      <c r="D82" s="292">
+        <v>26</v>
+      </c>
+      <c r="E82" s="280" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="282" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" s="280" t="s">
+        <v>90</v>
       </c>
       <c r="H82" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23090021</v>
       </c>
       <c r="I82" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 3787</v>
       </c>
       <c r="J82" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K82" s="280">
+        <v>432</v>
+      </c>
+      <c r="L82" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="M82" s="280">
+        <v>3</v>
+      </c>
+      <c r="N82" s="280" t="s">
+        <v>269</v>
       </c>
       <c r="O82" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q82" s="283"/>
-      <c r="R82" s="284"/>
-      <c r="T82" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+      </c>
+      <c r="P82" s="280" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q82" s="283">
+        <v>10600</v>
+      </c>
+      <c r="R82" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T82" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W82" s="287" t="str">
+        <v>4006800</v>
+      </c>
+      <c r="U82" s="283" t="s">
+        <v>234</v>
+      </c>
+      <c r="W82" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X82" s="287" t="str">
+        <v>82</v>
+      </c>
+      <c r="X82" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y82" s="283" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z82" s="283" t="str">
+        <v>4579200</v>
+      </c>
+      <c r="Z82" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA82" s="283" t="str">
+        <v>572400</v>
+      </c>
+      <c r="AA82" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB82" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC82" s="283" t="str">
+        <v>572400</v>
+      </c>
+      <c r="AC82" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD82" s="283" t="str">
+        <v>4006800</v>
+      </c>
+      <c r="AD82" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>4006800</v>
       </c>
       <c r="AE82" s="283"/>
       <c r="AF82" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS10600</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -22260,76 +22398,107 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="287" t="str">
+      <c r="A84" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B84" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="B84" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C84" s="281" t="str">
+        <v>23090022</v>
+      </c>
+      <c r="C84" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45195</v>
+      </c>
+      <c r="D84" s="292">
+        <v>26</v>
+      </c>
+      <c r="E84" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" s="282" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" s="280" t="s">
+        <v>72</v>
       </c>
       <c r="H84" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23090022</v>
       </c>
       <c r="I84" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 3828</v>
       </c>
       <c r="J84" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV SINAR CAHAYA NIRMALA BREBES</v>
+      </c>
+      <c r="K84" s="280">
+        <v>3</v>
+      </c>
+      <c r="L84" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N84" s="280" t="s">
+        <v>280</v>
       </c>
       <c r="O84" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q84" s="283"/>
-      <c r="R84" s="284"/>
-      <c r="T84" s="283" t="str">
+        <v>GEL PEN JOYKO GP-243 WHIZ GEL HITAM</v>
+      </c>
+      <c r="P84" s="280" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q84" s="283">
+        <v>24600</v>
+      </c>
+      <c r="R84" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T84" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W84" s="287" t="str">
+        <v>66420</v>
+      </c>
+      <c r="U84" s="283" t="s">
+        <v>234</v>
+      </c>
+      <c r="W84" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X84" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X84" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y84" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y84" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z84" s="283" t="str">
+        <v>73800</v>
+      </c>
+      <c r="Z84" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA84" s="283" t="str">
+        <v>7380</v>
+      </c>
+      <c r="AA84" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB84" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC84" s="283" t="str">
+        <v>7380</v>
+      </c>
+      <c r="AC84" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD84" s="283" t="str">
+        <v>66420</v>
+      </c>
+      <c r="AD84" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>1725035</v>
       </c>
       <c r="AE84" s="283"/>
       <c r="AF84" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN JOYKO GP-243 WHIZ GELLSN24600</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
@@ -22357,43 +22526,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K85" s="280">
+        <v>6</v>
+      </c>
+      <c r="L85" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N85" s="280" t="s">
+        <v>281</v>
+      </c>
       <c r="O85" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q85" s="283"/>
-      <c r="R85" s="284"/>
-      <c r="T85" s="283" t="str">
+        <v>BALLPEN JOYKO BP-349-12 VOKUS TRANS HITAM (BONUS)</v>
+      </c>
+      <c r="P85" s="280" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q85" s="283">
+        <v>13200</v>
+      </c>
+      <c r="R85" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T85" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W85" s="287" t="str">
+        <v>71280</v>
+      </c>
+      <c r="W85" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X85" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X85" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y85" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y85" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z85" s="283" t="str">
+        <v>79200</v>
+      </c>
+      <c r="Z85" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA85" s="283" t="str">
+        <v>7920</v>
+      </c>
+      <c r="AA85" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB85" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC85" s="283" t="str">
+        <v>7920</v>
+      </c>
+      <c r="AC85" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>71280</v>
       </c>
       <c r="AD85" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22402,7 +22587,7 @@
       <c r="AE85" s="283"/>
       <c r="AF85" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BALLPEN JOYKO BP-349-12 VOKUS TRANSLSN13200</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
@@ -22430,43 +22615,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K86" s="280">
+        <v>2</v>
+      </c>
+      <c r="L86" s="280" t="s">
+        <v>237</v>
+      </c>
+      <c r="N86" s="280" t="s">
+        <v>272</v>
+      </c>
       <c r="O86" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q86" s="283"/>
-      <c r="R86" s="284"/>
-      <c r="T86" s="283" t="str">
+        <v>BINDER CLIP KENKO NO. 107</v>
+      </c>
+      <c r="P86" s="280" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q86" s="283">
+        <v>31800</v>
+      </c>
+      <c r="R86" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T86" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W86" s="287" t="str">
+        <v>57240</v>
+      </c>
+      <c r="W86" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X86" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X86" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y86" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y86" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z86" s="283" t="str">
+        <v>63600</v>
+      </c>
+      <c r="Z86" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA86" s="283" t="str">
+        <v>6360</v>
+      </c>
+      <c r="AA86" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB86" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC86" s="283" t="str">
+        <v>6360</v>
+      </c>
+      <c r="AC86" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>57240</v>
       </c>
       <c r="AD86" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22475,7 +22676,7 @@
       <c r="AE86" s="283"/>
       <c r="AF86" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BINDER CLIP KENKO NO. 107GRS31800</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
@@ -22503,43 +22704,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K87" s="280">
+        <v>2</v>
+      </c>
+      <c r="L87" s="280" t="s">
+        <v>237</v>
+      </c>
+      <c r="M87" s="280" t="s">
+        <v>273</v>
+      </c>
+      <c r="N87" s="280" t="s">
+        <v>274</v>
+      </c>
       <c r="O87" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q87" s="283"/>
-      <c r="R87" s="284"/>
-      <c r="T87" s="283" t="str">
+        <v>BINDER CLIP KENKO NO. 111</v>
+      </c>
+      <c r="P87" s="280" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q87" s="283">
+        <v>49200</v>
+      </c>
+      <c r="R87" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T87" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W87" s="287" t="str">
+        <v>88560</v>
+      </c>
+      <c r="W87" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X87" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X87" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y87" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y87" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z87" s="283" t="str">
+        <v>98400</v>
+      </c>
+      <c r="Z87" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA87" s="283" t="str">
+        <v>9840</v>
+      </c>
+      <c r="AA87" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB87" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC87" s="283" t="str">
+        <v>9840</v>
+      </c>
+      <c r="AC87" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>88560</v>
       </c>
       <c r="AD87" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22548,7 +22768,7 @@
       <c r="AE87" s="283"/>
       <c r="AF87" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BINDER CLIP KENKO NO. 111GRS49200</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
@@ -22576,43 +22796,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K88" s="280">
+        <v>2</v>
+      </c>
+      <c r="L88" s="280" t="s">
+        <v>237</v>
+      </c>
+      <c r="N88" s="280" t="s">
+        <v>275</v>
+      </c>
       <c r="O88" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q88" s="283"/>
-      <c r="R88" s="284"/>
-      <c r="T88" s="283" t="str">
+        <v>BINDER CLIP KENKO NO. 200</v>
+      </c>
+      <c r="P88" s="280" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q88" s="283">
+        <v>120000</v>
+      </c>
+      <c r="R88" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T88" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W88" s="287" t="str">
+        <v>216000</v>
+      </c>
+      <c r="W88" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X88" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X88" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y88" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y88" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z88" s="283" t="str">
+        <v>240000</v>
+      </c>
+      <c r="Z88" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA88" s="283" t="str">
+        <v>24000</v>
+      </c>
+      <c r="AA88" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB88" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC88" s="283" t="str">
+        <v>24000</v>
+      </c>
+      <c r="AC88" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>216000</v>
       </c>
       <c r="AD88" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22621,7 +22857,7 @@
       <c r="AE88" s="283"/>
       <c r="AF88" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BINDER CLIP KENKO NO. 200GRS120000</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
@@ -22649,43 +22885,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K89" s="280">
+        <v>3</v>
+      </c>
+      <c r="L89" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N89" s="280" t="s">
+        <v>221</v>
+      </c>
       <c r="O89" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q89" s="283"/>
-      <c r="R89" s="284"/>
-      <c r="T89" s="283" t="str">
+        <v>LEM CAIR 35 ML KENKO LG-35</v>
+      </c>
+      <c r="P89" s="280" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q89" s="283">
+        <v>19800</v>
+      </c>
+      <c r="R89" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T89" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W89" s="287" t="str">
+        <v>53460</v>
+      </c>
+      <c r="W89" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X89" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X89" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y89" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y89" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z89" s="283" t="str">
+        <v>59400</v>
+      </c>
+      <c r="Z89" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA89" s="283" t="str">
+        <v>5940</v>
+      </c>
+      <c r="AA89" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB89" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC89" s="283" t="str">
+        <v>5940</v>
+      </c>
+      <c r="AC89" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>53460</v>
       </c>
       <c r="AD89" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22694,7 +22946,7 @@
       <c r="AE89" s="283"/>
       <c r="AF89" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LEM CAIR 35 ML KENKO LG-35LSN19800</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
@@ -22722,43 +22974,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K90" s="280">
+        <v>3</v>
+      </c>
+      <c r="L90" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N90" s="280" t="s">
+        <v>276</v>
+      </c>
       <c r="O90" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q90" s="283"/>
-      <c r="R90" s="284"/>
-      <c r="T90" s="283" t="str">
+        <v>LEM CAIR 50 ML KENKO LG-50</v>
+      </c>
+      <c r="P90" s="280" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q90" s="283">
+        <v>25200</v>
+      </c>
+      <c r="R90" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T90" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W90" s="287" t="str">
+        <v>68040</v>
+      </c>
+      <c r="W90" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X90" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X90" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y90" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y90" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z90" s="283" t="str">
+        <v>75600</v>
+      </c>
+      <c r="Z90" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA90" s="283" t="str">
+        <v>7560</v>
+      </c>
+      <c r="AA90" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB90" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC90" s="283" t="str">
+        <v>7560</v>
+      </c>
+      <c r="AC90" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>68040</v>
       </c>
       <c r="AD90" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22767,7 +23035,7 @@
       <c r="AE90" s="283"/>
       <c r="AF90" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LEM CAIR 50 ML KENKO LG-50LSN25200</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
@@ -22795,43 +23063,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K91" s="280">
+        <v>2</v>
+      </c>
+      <c r="L91" s="280" t="s">
+        <v>186</v>
+      </c>
+      <c r="N91" s="280" t="s">
+        <v>277</v>
+      </c>
       <c r="O91" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q91" s="283"/>
-      <c r="R91" s="284"/>
-      <c r="T91" s="283" t="str">
+        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAM</v>
+      </c>
+      <c r="P91" s="280" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q91" s="283">
+        <v>28300</v>
+      </c>
+      <c r="R91" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T91" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W91" s="287" t="str">
+        <v>50940</v>
+      </c>
+      <c r="W91" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X91" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X91" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y91" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y91" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z91" s="283" t="str">
+        <v>56600</v>
+      </c>
+      <c r="Z91" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA91" s="283" t="str">
+        <v>5660</v>
+      </c>
+      <c r="AA91" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB91" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC91" s="283" t="str">
+        <v>5660</v>
+      </c>
+      <c r="AC91" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>50940</v>
       </c>
       <c r="AD91" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22840,7 +23124,7 @@
       <c r="AE91" s="283"/>
       <c r="AF91" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAMBOX28300</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
@@ -22868,43 +23152,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K92" s="280">
+        <v>2</v>
+      </c>
+      <c r="L92" s="280" t="s">
+        <v>186</v>
+      </c>
+      <c r="N92" s="280" t="s">
+        <v>294</v>
+      </c>
       <c r="O92" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q92" s="283"/>
-      <c r="R92" s="284"/>
-      <c r="T92" s="283" t="str">
+        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</v>
+      </c>
+      <c r="P92" s="280" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q92" s="283">
+        <v>28300</v>
+      </c>
+      <c r="R92" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T92" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W92" s="287" t="str">
+        <v>50940</v>
+      </c>
+      <c r="W92" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X92" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X92" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y92" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y92" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z92" s="283" t="str">
+        <v>56600</v>
+      </c>
+      <c r="Z92" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA92" s="283" t="str">
+        <v>5660</v>
+      </c>
+      <c r="AA92" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB92" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC92" s="283" t="str">
+        <v>5660</v>
+      </c>
+      <c r="AC92" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>50940</v>
       </c>
       <c r="AD92" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22913,7 +23213,7 @@
       <c r="AE92" s="283"/>
       <c r="AF92" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIHBOX28300</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -22941,43 +23241,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K93" s="280">
+        <v>18</v>
+      </c>
+      <c r="L93" s="280" t="s">
+        <v>137</v>
+      </c>
+      <c r="N93" s="280" t="s">
+        <v>278</v>
+      </c>
       <c r="O93" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q93" s="283"/>
-      <c r="R93" s="284"/>
-      <c r="T93" s="283" t="str">
+        <v>LOOSE LEAF KENKO A5-LL 50-2070</v>
+      </c>
+      <c r="P93" s="280" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q93" s="283">
+        <v>4400</v>
+      </c>
+      <c r="R93" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T93" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W93" s="287" t="str">
+        <v>71280</v>
+      </c>
+      <c r="W93" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X93" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X93" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y93" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y93" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z93" s="283" t="str">
+        <v>79200</v>
+      </c>
+      <c r="Z93" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA93" s="283" t="str">
+        <v>7920</v>
+      </c>
+      <c r="AA93" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB93" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC93" s="283" t="str">
+        <v>7920</v>
+      </c>
+      <c r="AC93" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>71280</v>
       </c>
       <c r="AD93" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -22986,7 +23302,7 @@
       <c r="AE93" s="283"/>
       <c r="AF93" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LOOSE LEAF KENKO A5-LL 50-2070PAK4400</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -23014,43 +23330,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K94" s="280">
+        <v>25</v>
+      </c>
+      <c r="L94" s="280" t="s">
+        <v>137</v>
+      </c>
+      <c r="N94" s="280" t="s">
+        <v>282</v>
+      </c>
       <c r="O94" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q94" s="283"/>
-      <c r="R94" s="284"/>
-      <c r="T94" s="283" t="str">
+        <v>LOOSE LEAF KENKO A5-LL 100-2070</v>
+      </c>
+      <c r="P94" s="280" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q94" s="283">
+        <v>8350</v>
+      </c>
+      <c r="R94" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T94" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W94" s="287" t="str">
+        <v>187875</v>
+      </c>
+      <c r="W94" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X94" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X94" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y94" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y94" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z94" s="283" t="str">
+        <v>208750</v>
+      </c>
+      <c r="Z94" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA94" s="283" t="str">
+        <v>20875</v>
+      </c>
+      <c r="AA94" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB94" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC94" s="283" t="str">
+        <v>20875</v>
+      </c>
+      <c r="AC94" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>187875</v>
       </c>
       <c r="AD94" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23059,7 +23391,7 @@
       <c r="AE94" s="283"/>
       <c r="AF94" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LOOSE LEAF KENKO A5-LL 100-2070PAK8350</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
@@ -23087,43 +23419,57 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K95" s="280">
+        <v>10</v>
+      </c>
+      <c r="L95" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="N95" s="280" t="s">
+        <v>283</v>
+      </c>
       <c r="O95" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q95" s="283"/>
+        <v>BUKU KAS KWARTO</v>
+      </c>
+      <c r="P95" s="280" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q95" s="283">
+        <v>9500</v>
+      </c>
       <c r="R95" s="284"/>
-      <c r="T95" s="283" t="str">
+      <c r="T95" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W95" s="287" t="str">
+        <v>95000</v>
+      </c>
+      <c r="W95" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X95" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X95" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y95" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y95" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z95" s="283" t="str">
+        <v>95000</v>
+      </c>
+      <c r="Z95" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA95" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB95" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC95" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>95000</v>
       </c>
       <c r="AD95" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23132,7 +23478,7 @@
       <c r="AE95" s="283"/>
       <c r="AF95" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>BUKU KAS KWARTOPCS9500</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
@@ -23160,43 +23506,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="O96" s="287" t="str">
+      <c r="K96" s="280">
+        <v>72</v>
+      </c>
+      <c r="L96" s="280" t="s">
+        <v>209</v>
+      </c>
+      <c r="M96" s="280">
+        <v>1</v>
+      </c>
+      <c r="N96" s="280" t="s">
+        <v>279</v>
+      </c>
+      <c r="O96" s="287" t="e">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q96" s="283"/>
-      <c r="R96" s="284"/>
-      <c r="T96" s="283" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P96" s="280" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q96" s="283">
+        <v>10000</v>
+      </c>
+      <c r="R96" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T96" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W96" s="287" t="str">
+        <v>648000</v>
+      </c>
+      <c r="W96" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X96" s="287" t="str">
+        <v>84</v>
+      </c>
+      <c r="X96" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y96" s="283" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y96" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z96" s="283" t="str">
+        <v>720000</v>
+      </c>
+      <c r="Z96" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA96" s="283" t="str">
+        <v>72000</v>
+      </c>
+      <c r="AA96" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB96" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC96" s="283" t="str">
+        <v>72000</v>
+      </c>
+      <c r="AC96" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>648000</v>
       </c>
       <c r="AD96" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23205,7 +23570,7 @@
       <c r="AE96" s="283"/>
       <c r="AF96" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PLAKBAND BENING 80 M KENKO 48 MM RED COREROL10000</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
@@ -23282,76 +23647,104 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" s="287" t="str">
+      <c r="A98" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B98" s="287" t="str">
+        <v>98</v>
+      </c>
+      <c r="B98" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C98" s="281" t="str">
+        <v>23090023</v>
+      </c>
+      <c r="C98" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45196</v>
+      </c>
+      <c r="D98" s="292">
+        <v>27</v>
+      </c>
+      <c r="E98" s="280" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="282" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" s="280" t="s">
+        <v>67</v>
       </c>
       <c r="H98" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23090023</v>
       </c>
       <c r="I98" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 3791</v>
       </c>
       <c r="J98" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="K98" s="280">
+        <v>50</v>
+      </c>
+      <c r="L98" s="280" t="s">
+        <v>150</v>
       </c>
       <c r="O98" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="Q98" s="283"/>
-      <c r="R98" s="284"/>
-      <c r="T98" s="283" t="str">
+      <c r="P98" s="280" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q98" s="283">
+        <v>3050</v>
+      </c>
+      <c r="R98" s="284">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T98" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W98" s="287" t="str">
+        <v>131150</v>
+      </c>
+      <c r="U98" s="283" t="s">
+        <v>135</v>
+      </c>
+      <c r="W98" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X98" s="287" t="str">
+        <v>98</v>
+      </c>
+      <c r="X98" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y98" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z98" s="283" t="str">
+        <v>152500</v>
+      </c>
+      <c r="Z98" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA98" s="283" t="str">
+        <v>21350.000000000004</v>
+      </c>
+      <c r="AA98" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB98" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC98" s="283" t="str">
+        <v>21350.000000000004</v>
+      </c>
+      <c r="AC98" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD98" s="283" t="str">
+        <v>131150</v>
+      </c>
+      <c r="AD98" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>1075430</v>
       </c>
       <c r="AE98" s="283"/>
       <c r="AF98" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>HIGHLIGHTER / STABILO KENKO HL-100 UNGUPCS3050</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
@@ -23379,43 +23772,56 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K99" s="280">
+        <v>120</v>
+      </c>
+      <c r="L99" s="280" t="s">
+        <v>150</v>
+      </c>
       <c r="O99" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="Q99" s="283"/>
-      <c r="R99" s="284"/>
-      <c r="T99" s="283" t="str">
+      <c r="P99" s="280" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q99" s="283">
+        <v>3050</v>
+      </c>
+      <c r="R99" s="284">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T99" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W99" s="287" t="str">
+        <v>314760</v>
+      </c>
+      <c r="W99" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X99" s="287" t="str">
+        <v>98</v>
+      </c>
+      <c r="X99" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y99" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y99" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z99" s="283" t="str">
+        <v>366000</v>
+      </c>
+      <c r="Z99" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA99" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AA99" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB99" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC99" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AC99" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>314760</v>
       </c>
       <c r="AD99" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23424,7 +23830,7 @@
       <c r="AE99" s="283"/>
       <c r="AF99" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>HIGHLIGHTER / STABILO KENKO HL-100 HIJAUPCS3050</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
@@ -23452,43 +23858,56 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K100" s="280">
+        <v>120</v>
+      </c>
+      <c r="L100" s="280" t="s">
+        <v>150</v>
+      </c>
       <c r="O100" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="Q100" s="283"/>
-      <c r="R100" s="284"/>
-      <c r="T100" s="283" t="str">
+      <c r="P100" s="280" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q100" s="283">
+        <v>3050</v>
+      </c>
+      <c r="R100" s="284">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T100" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W100" s="287" t="str">
+        <v>314760</v>
+      </c>
+      <c r="W100" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X100" s="287" t="str">
+        <v>98</v>
+      </c>
+      <c r="X100" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y100" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z100" s="283" t="str">
+        <v>366000</v>
+      </c>
+      <c r="Z100" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA100" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AA100" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB100" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC100" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AC100" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>314760</v>
       </c>
       <c r="AD100" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23497,7 +23916,7 @@
       <c r="AE100" s="283"/>
       <c r="AF100" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>HIGHLIGHTER / STABILO KENKO HL-100 KUNINGPCS3050</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
@@ -23525,43 +23944,56 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K101" s="280">
+        <v>120</v>
+      </c>
+      <c r="L101" s="280" t="s">
+        <v>150</v>
+      </c>
       <c r="O101" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="Q101" s="283"/>
-      <c r="R101" s="284"/>
-      <c r="T101" s="283" t="str">
+      <c r="P101" s="280" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="283">
+        <v>3050</v>
+      </c>
+      <c r="R101" s="284">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T101" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W101" s="287" t="str">
+        <v>314760</v>
+      </c>
+      <c r="W101" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X101" s="287" t="str">
+        <v>98</v>
+      </c>
+      <c r="X101" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y101" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z101" s="283" t="str">
+        <v>366000</v>
+      </c>
+      <c r="Z101" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA101" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AA101" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB101" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC101" s="283" t="str">
+        <v>51240.000000000007</v>
+      </c>
+      <c r="AC101" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>314760</v>
       </c>
       <c r="AD101" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23570,7 +24002,7 @@
       <c r="AE101" s="283"/>
       <c r="AF101" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>HIGHLIGHTER / STABILO KENKO HL-100 PINKPCS3050</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
@@ -23647,76 +24079,107 @@
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="287" t="str">
+      <c r="A103" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B103" s="287" t="str">
+        <v>103</v>
+      </c>
+      <c r="B103" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C103" s="281" t="str">
+        <v>23090024</v>
+      </c>
+      <c r="C103" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45196</v>
+      </c>
+      <c r="D103" s="292">
+        <v>27</v>
+      </c>
+      <c r="E103" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="G103" s="280" t="s">
+        <v>38</v>
       </c>
       <c r="H103" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23090024</v>
       </c>
       <c r="I103" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 3780</v>
       </c>
       <c r="J103" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV DWI JAYA YOGYAKARTA</v>
+      </c>
+      <c r="K103" s="280">
+        <v>6</v>
+      </c>
+      <c r="L103" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N103" s="280" t="s">
+        <v>302</v>
       </c>
       <c r="O103" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q103" s="283"/>
-      <c r="R103" s="284"/>
-      <c r="T103" s="283" t="str">
+        <v>GUNTING KENKO SC-828</v>
+      </c>
+      <c r="P103" s="280" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q103" s="283">
+        <v>56400</v>
+      </c>
+      <c r="R103" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T103" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W103" s="287" t="str">
+        <v>304560</v>
+      </c>
+      <c r="U103" s="283" t="s">
+        <v>135</v>
+      </c>
+      <c r="W103" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X103" s="287" t="str">
+        <v>103</v>
+      </c>
+      <c r="X103" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y103" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y103" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z103" s="283" t="str">
+        <v>338400</v>
+      </c>
+      <c r="Z103" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA103" s="283" t="str">
+        <v>33840</v>
+      </c>
+      <c r="AA103" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB103" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC103" s="283" t="str">
+        <v>33840</v>
+      </c>
+      <c r="AC103" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD103" s="283" t="str">
+        <v>304560</v>
+      </c>
+      <c r="AD103" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>2300400</v>
       </c>
       <c r="AE103" s="283"/>
       <c r="AF103" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GUNTING KENKO SC-828LSN56400</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
@@ -23744,43 +24207,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K104" s="280">
+        <v>24</v>
+      </c>
+      <c r="L104" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N104" s="280" t="s">
+        <v>303</v>
+      </c>
       <c r="O104" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q104" s="283"/>
-      <c r="R104" s="284"/>
-      <c r="T104" s="283" t="str">
+        <v>GEL PEN JOYKO GP-265 Q-GEL</v>
+      </c>
+      <c r="P104" s="280" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q104" s="283">
+        <v>28200</v>
+      </c>
+      <c r="R104" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T104" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W104" s="287" t="str">
+        <v>609120</v>
+      </c>
+      <c r="W104" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X104" s="287" t="str">
+        <v>103</v>
+      </c>
+      <c r="X104" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y104" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y104" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z104" s="283" t="str">
+        <v>676800</v>
+      </c>
+      <c r="Z104" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA104" s="283" t="str">
+        <v>67680</v>
+      </c>
+      <c r="AA104" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB104" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC104" s="283" t="str">
+        <v>67680</v>
+      </c>
+      <c r="AC104" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>609120</v>
       </c>
       <c r="AD104" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23789,7 +24268,7 @@
       <c r="AE104" s="283"/>
       <c r="AF104" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN JOYKO GP-265 Q-GELLSN28200</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
@@ -23817,43 +24296,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K105" s="280">
+        <v>4</v>
+      </c>
+      <c r="L105" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N105" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="O105" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q105" s="283"/>
-      <c r="R105" s="284"/>
-      <c r="T105" s="283" t="str">
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+      </c>
+      <c r="P105" s="280" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q105" s="283">
+        <v>147600</v>
+      </c>
+      <c r="R105" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T105" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W105" s="287" t="str">
+        <v>531360</v>
+      </c>
+      <c r="W105" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X105" s="287" t="str">
+        <v>103</v>
+      </c>
+      <c r="X105" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y105" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y105" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z105" s="283" t="str">
+        <v>590400</v>
+      </c>
+      <c r="Z105" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA105" s="283" t="str">
+        <v>59040</v>
+      </c>
+      <c r="AA105" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB105" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC105" s="283" t="str">
+        <v>59040</v>
+      </c>
+      <c r="AC105" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>531360</v>
       </c>
       <c r="AD105" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23862,7 +24357,7 @@
       <c r="AE105" s="283"/>
       <c r="AF105" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
@@ -23890,43 +24385,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K106" s="280">
+        <v>24</v>
+      </c>
+      <c r="L106" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="N106" s="280" t="s">
+        <v>200</v>
+      </c>
       <c r="O106" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q106" s="283"/>
-      <c r="R106" s="284"/>
-      <c r="T106" s="283" t="str">
+        <v>GEL PEN KENKO K-1 HITAM</v>
+      </c>
+      <c r="P106" s="280" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q106" s="283">
+        <v>39600</v>
+      </c>
+      <c r="R106" s="284">
+        <v>0.1</v>
+      </c>
+      <c r="T106" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W106" s="287" t="str">
+        <v>855360</v>
+      </c>
+      <c r="W106" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X106" s="287" t="str">
+        <v>103</v>
+      </c>
+      <c r="X106" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y106" s="283" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z106" s="283" t="str">
+        <v>950400</v>
+      </c>
+      <c r="Z106" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA106" s="283" t="str">
+        <v>95040</v>
+      </c>
+      <c r="AA106" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB106" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC106" s="283" t="str">
+        <v>95040</v>
+      </c>
+      <c r="AC106" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>855360</v>
       </c>
       <c r="AD106" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -23935,7 +24446,7 @@
       <c r="AE106" s="283"/>
       <c r="AF106" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO K-1 HITAMLSN39600</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
@@ -35987,42 +36498,42 @@
       </c>
     </row>
     <row r="272" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A272" s="362"/>
-      <c r="B272" s="362"/>
-      <c r="C272" s="363"/>
-      <c r="D272" s="364"/>
-      <c r="E272" s="365"/>
-      <c r="F272" s="366"/>
-      <c r="G272" s="365"/>
-      <c r="H272" s="362"/>
-      <c r="I272" s="367"/>
-      <c r="J272" s="362"/>
-      <c r="K272" s="365"/>
-      <c r="L272" s="365"/>
-      <c r="M272" s="365"/>
-      <c r="N272" s="365"/>
-      <c r="O272" s="362"/>
-      <c r="P272" s="365"/>
-      <c r="Q272" s="368"/>
-      <c r="R272" s="369"/>
-      <c r="S272" s="369"/>
-      <c r="T272" s="368"/>
-      <c r="U272" s="368"/>
-      <c r="V272" s="365"/>
-      <c r="W272" s="362"/>
-      <c r="X272" s="362"/>
-      <c r="Y272" s="368"/>
-      <c r="Z272" s="368"/>
-      <c r="AA272" s="368"/>
-      <c r="AB272" s="368"/>
-      <c r="AC272" s="368"/>
-      <c r="AD272" s="368"/>
-      <c r="AE272" s="368"/>
-      <c r="AF272" s="368"/>
+      <c r="A272" s="304"/>
+      <c r="B272" s="304"/>
+      <c r="C272" s="305"/>
+      <c r="D272" s="306"/>
+      <c r="E272" s="307"/>
+      <c r="F272" s="308"/>
+      <c r="G272" s="307"/>
+      <c r="H272" s="304"/>
+      <c r="I272" s="309"/>
+      <c r="J272" s="304"/>
+      <c r="K272" s="307"/>
+      <c r="L272" s="307"/>
+      <c r="M272" s="307"/>
+      <c r="N272" s="307"/>
+      <c r="O272" s="304"/>
+      <c r="P272" s="307"/>
+      <c r="Q272" s="310"/>
+      <c r="R272" s="311"/>
+      <c r="S272" s="311"/>
+      <c r="T272" s="310"/>
+      <c r="U272" s="310"/>
+      <c r="V272" s="307"/>
+      <c r="W272" s="304"/>
+      <c r="X272" s="304"/>
+      <c r="Y272" s="310"/>
+      <c r="Z272" s="310"/>
+      <c r="AA272" s="310"/>
+      <c r="AB272" s="310"/>
+      <c r="AC272" s="310"/>
+      <c r="AD272" s="310"/>
+      <c r="AE272" s="310"/>
+      <c r="AF272" s="310"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P57">
-    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36037,8 +36548,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36108,7 +36619,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" s="294" t="str">
         <f>"["&amp;H2&amp;".xlsx]Invoice"</f>
@@ -36117,7 +36628,7 @@
       <c r="I3" s="296"/>
       <c r="O3" s="85">
         <f>preview!K1</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
@@ -36220,7 +36731,7 @@
       </c>
       <c r="AA4" s="278">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>161499062</v>
+        <v>170606727</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -36284,32 +36795,32 @@
         <f t="shared" ref="S5:S36" si="1">S$3+ROW()-5</f>
         <v>23090001</v>
       </c>
-      <c r="T5" s="183">
+      <c r="T5" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2</v>
-      </c>
-      <c r="U5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X5" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="X5" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z5" t="s">
         <v>25</v>
       </c>
       <c r="AA5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>16004411.549549546</v>
+        <v>16906972.945945941</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -36373,29 +36884,29 @@
         <f t="shared" si="1"/>
         <v>23090002</v>
       </c>
-      <c r="T6" s="183">
+      <c r="T6" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>116</v>
-      </c>
-      <c r="U6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W6" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X6" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="AA6" s="87">
         <f ca="1">(AA4/1.11)*11%</f>
-        <v>16004411.54954955</v>
+        <v>16906972.945945945</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -36459,25 +36970,25 @@
         <f t="shared" si="1"/>
         <v>23090003</v>
       </c>
-      <c r="T7" s="183">
+      <c r="T7" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>230</v>
-      </c>
-      <c r="U7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W7" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X7" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -36541,25 +37052,25 @@
         <f t="shared" si="1"/>
         <v>23090004</v>
       </c>
-      <c r="T8" s="183">
+      <c r="T8" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>344</v>
-      </c>
-      <c r="U8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W8" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W8" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X8" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -36623,25 +37134,25 @@
         <f t="shared" si="1"/>
         <v>23090005</v>
       </c>
-      <c r="T9" s="183">
+      <c r="T9" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>458</v>
-      </c>
-      <c r="U9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W9" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X9" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X9" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -36705,25 +37216,25 @@
         <f t="shared" si="1"/>
         <v>23090006</v>
       </c>
-      <c r="T10" s="183">
+      <c r="T10" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>572</v>
-      </c>
-      <c r="U10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W10" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X10" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X10" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -36787,25 +37298,25 @@
         <f t="shared" si="1"/>
         <v>23090007</v>
       </c>
-      <c r="T11" s="183">
+      <c r="T11" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>686</v>
-      </c>
-      <c r="U11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W11" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X11" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X11" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -36869,25 +37380,25 @@
         <f t="shared" si="1"/>
         <v>23090008</v>
       </c>
-      <c r="T12" s="183">
+      <c r="T12" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>800</v>
-      </c>
-      <c r="U12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W12" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X12" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -36951,25 +37462,25 @@
         <f t="shared" si="1"/>
         <v>23090009</v>
       </c>
-      <c r="T13" s="183">
+      <c r="T13" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>914</v>
-      </c>
-      <c r="U13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W13" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X13" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -37033,25 +37544,25 @@
         <f t="shared" si="1"/>
         <v>23090010</v>
       </c>
-      <c r="T14" s="183">
+      <c r="T14" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1028</v>
-      </c>
-      <c r="U14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X14" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -37115,25 +37626,25 @@
         <f t="shared" si="1"/>
         <v>23090011</v>
       </c>
-      <c r="T15" s="183">
+      <c r="T15" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1142</v>
-      </c>
-      <c r="U15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X15" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X15" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="298" customFormat="1" x14ac:dyDescent="0.25">
@@ -37199,24 +37710,23 @@
         <v>23090012</v>
       </c>
       <c r="T16" s="302">
-        <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1256</v>
-      </c>
-      <c r="U16" s="302" t="b">
+        <v>2738</v>
+      </c>
+      <c r="U16" s="302" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="302">
+        <v>#REF!</v>
+      </c>
+      <c r="V16" s="302" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="302" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="302" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="303" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="X16" s="303" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -37280,25 +37790,25 @@
         <f t="shared" si="1"/>
         <v>23090013</v>
       </c>
-      <c r="T17" s="183">
+      <c r="T17" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1370</v>
-      </c>
-      <c r="U17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X17" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X17" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -37362,25 +37872,25 @@
         <f t="shared" si="1"/>
         <v>23090014</v>
       </c>
-      <c r="T18" s="183">
+      <c r="T18" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1484</v>
-      </c>
-      <c r="U18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X18" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X18" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -37444,25 +37954,25 @@
         <f t="shared" si="1"/>
         <v>23090015</v>
       </c>
-      <c r="T19" s="183">
+      <c r="T19" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1598</v>
-      </c>
-      <c r="U19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X19" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X19" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -37526,25 +38036,25 @@
         <f t="shared" si="1"/>
         <v>23090016</v>
       </c>
-      <c r="T20" s="183">
+      <c r="T20" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1712</v>
-      </c>
-      <c r="U20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X20" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X20" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -37608,25 +38118,25 @@
         <f t="shared" si="1"/>
         <v>23090017</v>
       </c>
-      <c r="T21" s="183">
+      <c r="T21" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1826</v>
-      </c>
-      <c r="U21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X21" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X21" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -37691,25 +38201,25 @@
         <f t="shared" si="1"/>
         <v>23090018</v>
       </c>
-      <c r="T22" s="183">
+      <c r="T22" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>1940</v>
-      </c>
-      <c r="U22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="U22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="V22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W22" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X22" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -37773,28 +38283,28 @@
         <f t="shared" si="1"/>
         <v>23090019</v>
       </c>
-      <c r="T23" s="183">
+      <c r="T23" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2054</v>
-      </c>
-      <c r="U23" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="V23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W23" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X23" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X23" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="291">
         <v>79</v>
       </c>
@@ -37855,72 +38365,74 @@
         <f t="shared" si="1"/>
         <v>23090020</v>
       </c>
-      <c r="T24" s="183">
+      <c r="T24" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>2168</v>
-      </c>
-      <c r="U24" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="W24" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="X24" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="291"/>
-      <c r="D25" s="85" t="str">
+      <c r="A25" s="291">
+        <v>82</v>
+      </c>
+      <c r="D25" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>82</v>
       </c>
       <c r="E25" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F25" s="88" t="str">
+        <v>AM 23090021</v>
+      </c>
+      <c r="F25" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45195</v>
       </c>
       <c r="G25" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 3787</v>
       </c>
       <c r="H25" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I25" s="87" t="str">
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="I25" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J25" s="87" t="str">
+        <v>4579200</v>
+      </c>
+      <c r="J25" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K25" s="87" t="str">
+        <v>572400</v>
+      </c>
+      <c r="K25" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L25" s="87" t="str">
+        <v>4006800</v>
+      </c>
+      <c r="L25" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M25" s="87" t="str">
+        <v>397070.27027027024</v>
+      </c>
+      <c r="M25" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>4006800</v>
       </c>
       <c r="N25" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>RISMA / CONDRO</v>
       </c>
       <c r="O25" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -37935,74 +38447,74 @@
         <f t="shared" si="1"/>
         <v>23090021</v>
       </c>
-      <c r="T25" s="183" t="b">
+      <c r="T25" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="183" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="183">
+        <v>#REF!</v>
+      </c>
+      <c r="W25" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X25" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X25" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="85" t="str">
+      <c r="A26" s="291">
+        <v>84</v>
+      </c>
+      <c r="D26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>84</v>
       </c>
       <c r="E26" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F26" s="88" t="str">
+        <v>AM 23090022</v>
+      </c>
+      <c r="F26" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45195</v>
       </c>
       <c r="G26" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 3828</v>
       </c>
       <c r="H26" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I26" s="87" t="str">
+        <v>CV SINAR CAHAYA NIRMALA BREBES</v>
+      </c>
+      <c r="I26" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J26" s="87" t="str">
+        <v>1906150</v>
+      </c>
+      <c r="J26" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K26" s="87" t="str">
+        <v>181115</v>
+      </c>
+      <c r="K26" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L26" s="87" t="str">
+        <v>1725035</v>
+      </c>
+      <c r="L26" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M26" s="87" t="str">
+        <v>170949.41441441441</v>
+      </c>
+      <c r="M26" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>1725035</v>
       </c>
       <c r="N26" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>RISMA / CONDRO</v>
       </c>
       <c r="O26" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38017,71 +38529,74 @@
         <f t="shared" si="1"/>
         <v>23090022</v>
       </c>
-      <c r="T26" s="184" t="b">
+      <c r="T26" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X26" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X26" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D27" s="85" t="str">
+      <c r="A27" s="291">
+        <v>98</v>
+      </c>
+      <c r="D27" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>98</v>
       </c>
       <c r="E27" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F27" s="88" t="str">
+        <v>AM 23090023</v>
+      </c>
+      <c r="F27" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45196</v>
       </c>
       <c r="G27" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 3791</v>
       </c>
       <c r="H27" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I27" s="87" t="str">
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="I27" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J27" s="87" t="str">
+        <v>1250500</v>
+      </c>
+      <c r="J27" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K27" s="87" t="str">
+        <v>175070.00000000003</v>
+      </c>
+      <c r="K27" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L27" s="87" t="str">
+        <v>1075430</v>
+      </c>
+      <c r="L27" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M27" s="87" t="str">
+        <v>106574.14414414413</v>
+      </c>
+      <c r="M27" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>1075430</v>
       </c>
       <c r="N27" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O27" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38096,71 +38611,74 @@
         <f t="shared" si="1"/>
         <v>23090023</v>
       </c>
-      <c r="T27" s="184" t="b">
+      <c r="T27" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X27" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X27" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D28" s="85" t="str">
+      <c r="A28" s="291">
+        <v>103</v>
+      </c>
+      <c r="D28" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>103</v>
       </c>
       <c r="E28" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F28" s="88" t="str">
+        <v>AM 23090024</v>
+      </c>
+      <c r="F28" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45196</v>
       </c>
       <c r="G28" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 3780</v>
       </c>
       <c r="H28" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I28" s="87" t="str">
+        <v>CV DWI JAYA YOGYAKARTA</v>
+      </c>
+      <c r="I28" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J28" s="87" t="str">
+        <v>2556000</v>
+      </c>
+      <c r="J28" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K28" s="87" t="str">
+        <v>255600</v>
+      </c>
+      <c r="K28" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L28" s="87" t="str">
+        <v>2300400</v>
+      </c>
+      <c r="L28" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M28" s="87" t="str">
+        <v>227967.56756756754</v>
+      </c>
+      <c r="M28" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>2300400</v>
       </c>
       <c r="N28" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O28" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38175,28 +38693,29 @@
         <f t="shared" si="1"/>
         <v>23090024</v>
       </c>
-      <c r="T28" s="184" t="b">
+      <c r="T28" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="U28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X28" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X28" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="291"/>
       <c r="D29" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38258,24 +38777,27 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U29" s="184" t="b">
+      <c r="U29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X29" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="291" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38338,21 +38860,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U30" s="184" t="b">
+      <c r="U30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X30" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X30" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -38417,21 +38939,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U31" s="184" t="b">
+      <c r="U31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X31" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X31" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -38496,21 +39018,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U32" s="184" t="b">
+      <c r="U32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X32" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X32" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="4:24" x14ac:dyDescent="0.25">
@@ -38575,21 +39097,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U33" s="184" t="b">
+      <c r="U33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X33" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X33" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="4:24" x14ac:dyDescent="0.25">
@@ -38654,21 +39176,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U34" s="184" t="b">
+      <c r="U34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X34" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X34" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="4:24" x14ac:dyDescent="0.25">
@@ -38733,21 +39255,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U35" s="184" t="b">
+      <c r="U35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X35" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X35" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="4:24" x14ac:dyDescent="0.25">
@@ -38812,21 +39334,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U36" s="184" t="b">
+      <c r="U36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X36" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X36" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="4:24" x14ac:dyDescent="0.25">
@@ -38891,21 +39413,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U37" s="184" t="b">
+      <c r="U37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X37" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X37" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="4:24" x14ac:dyDescent="0.25">
@@ -38970,21 +39492,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U38" s="184" t="b">
+      <c r="U38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X38" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="4:24" x14ac:dyDescent="0.25">
@@ -39049,21 +39571,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U39" s="184" t="b">
+      <c r="U39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X39" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X39" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="4:24" x14ac:dyDescent="0.25">
@@ -39128,21 +39650,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U40" s="184" t="b">
+      <c r="U40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X40" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X40" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="4:24" x14ac:dyDescent="0.25">
@@ -39207,21 +39729,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U41" s="184" t="b">
+      <c r="U41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X41" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X41" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="4:24" x14ac:dyDescent="0.25">
@@ -39286,21 +39808,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U42" s="184" t="b">
+      <c r="U42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X42" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X42" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.25">
@@ -39365,21 +39887,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U43" s="184" t="b">
+      <c r="U43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X43" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X43" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="4:24" x14ac:dyDescent="0.25">
@@ -39444,21 +39966,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U44" s="184" t="b">
+      <c r="U44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X44" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X44" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="4:24" x14ac:dyDescent="0.25">
@@ -39523,21 +40045,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U45" s="184" t="b">
+      <c r="U45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X45" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X45" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.25">
@@ -39602,21 +40124,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U46" s="184" t="b">
+      <c r="U46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X46" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X46" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="4:24" x14ac:dyDescent="0.25">
@@ -39681,21 +40203,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U47" s="184" t="b">
+      <c r="U47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X47" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X47" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="4:24" x14ac:dyDescent="0.25">
@@ -39760,21 +40282,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U48" s="184" t="b">
+      <c r="U48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X48" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X48" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.25">
@@ -39839,21 +40361,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U49" s="184" t="b">
+      <c r="U49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X49" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X49" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="4:24" x14ac:dyDescent="0.25">
@@ -39918,21 +40440,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U50" s="184" t="b">
+      <c r="U50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W50" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X50" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X50" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="4:24" x14ac:dyDescent="0.25">
@@ -39997,21 +40519,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U51" s="184" t="b">
+      <c r="U51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W51" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X51" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X51" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.25">
@@ -40076,21 +40598,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U52" s="184" t="b">
+      <c r="U52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W52" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X52" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X52" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.25">
@@ -40155,21 +40677,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U53" s="184" t="b">
+      <c r="U53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X53" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X53" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="4:24" x14ac:dyDescent="0.25">
@@ -40234,21 +40756,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U54" s="184" t="b">
+      <c r="U54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W54" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X54" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X54" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="4:24" x14ac:dyDescent="0.25">
@@ -40313,21 +40835,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U55" s="184" t="b">
+      <c r="U55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X55" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X55" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="4:24" x14ac:dyDescent="0.25">
@@ -40392,21 +40914,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U56" s="184" t="b">
+      <c r="U56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X56" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X56" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="4:24" x14ac:dyDescent="0.25">
@@ -40471,21 +40993,21 @@
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
         <v>0</v>
       </c>
-      <c r="U57" s="184" t="b">
+      <c r="U57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="184" t="b">
+        <v>#REF!</v>
+      </c>
+      <c r="V57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="W57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
-      </c>
-      <c r="X57" s="184">
+        <v>#REF!</v>
+      </c>
+      <c r="X57" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="4:24" x14ac:dyDescent="0.25">
@@ -40495,23 +41017,23 @@
       <c r="F58"/>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>184994400</v>
+        <v>195286250</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>23495338</v>
+        <v>24679523</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>161499062</v>
+        <v>170606727</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>16004411.549549546</v>
+        <v>16906972.945945941</v>
       </c>
       <c r="M58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>161499062</v>
+        <v>170606727</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -40519,10 +41041,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G59:G1048576 G3:G57">
-    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:X2 T4:X1048576">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40540,8 +41062,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -40558,10 +41080,10 @@
     <col min="12" max="12" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -40582,14 +41104,17 @@
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>2</v>
-      </c>
-      <c r="I1" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="312" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="304"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="312"/>
+      <c r="K1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="D2" s="4"/>
       <c r="I2" s="5"/>
@@ -40611,18 +41136,18 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23090020</v>
+        <v>23090012</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="311" t="str">
+      <c r="H3" s="319" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="320"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40631,14 +41156,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="315" t="s">
+      <c r="F4" s="323" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="314"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="322"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40647,20 +41172,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="316">
+      <c r="D5" s="324">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45192</v>
-      </c>
-      <c r="E5" s="317"/>
-      <c r="F5" s="315"/>
+        <v>45184</v>
+      </c>
+      <c r="E5" s="325"/>
+      <c r="F5" s="323"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="318" t="str">
+      <c r="H5" s="326" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I5" s="318"/>
-      <c r="J5" s="318"/>
-      <c r="K5" s="319"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="327"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40669,15 +41194,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="315"/>
+      <c r="F6" s="323"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="320" t="str">
+      <c r="H6" s="328" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I6" s="320"/>
-      <c r="J6" s="320"/>
-      <c r="K6" s="321"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="329"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40688,15 +41213,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 3742</v>
+        <v>KO 3801</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
-      <c r="J7" s="322"/>
-      <c r="K7" s="323"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
+      <c r="J7" s="330"/>
+      <c r="K7" s="331"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40759,25 +41284,25 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A11-1))))</f>
-        <v>GRS</v>
+        <v>LSN</v>
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>PENSIL KENKO 2B-6191 HIJAU CAP HITAM</v>
+        <v>GEL PEN KENKO K-1 HITAM</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>110400</v>
+        <v>39600</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
@@ -40789,7 +41314,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>3819840</v>
+        <v>4932576</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -40797,39 +41322,39 @@
       <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A12-1))))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D12" s="46">
+        <v/>
+      </c>
+      <c r="D12" s="46" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v/>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="50">
+      <c r="H12" s="50" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v>147600</v>
-      </c>
-      <c r="I12" s="51">
+        <v/>
+      </c>
+      <c r="I12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="52" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v>2553480</v>
+        <v/>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -41417,8 +41942,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="310"/>
+      <c r="J28" s="318"/>
+      <c r="K28" s="318"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -41428,11 +41953,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="307">
+      <c r="J29" s="315">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>6373320</v>
-      </c>
-      <c r="K29" s="308"/>
+        <v>4932576</v>
+      </c>
+      <c r="K29" s="316"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41441,8 +41966,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="309"/>
-      <c r="K30" s="309"/>
+      <c r="J30" s="317"/>
+      <c r="K30" s="317"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -41465,8 +41990,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -41481,11 +42006,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="307">
+      <c r="J33" s="315">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>631590.27027027018</v>
-      </c>
-      <c r="K33" s="308"/>
+        <v>488813.83783783775</v>
+      </c>
+      <c r="K33" s="316"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41494,8 +42019,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="310"/>
-      <c r="K34" s="310"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -41509,7 +42034,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>6373320</v>
+        <v>4932576</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -41536,11 +42061,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="305" t="str">
+      <c r="J37" s="313" t="str">
         <f ca="1">INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>RISMA / CONDRO</v>
-      </c>
-      <c r="K37" s="306"/>
+        <v>NOVI / CONDRO</v>
+      </c>
+      <c r="K37" s="314"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -41550,11 +42075,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="305" t="str">
+      <c r="J38" s="313" t="str">
         <f ca="1">INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="306"/>
+      <c r="K38" s="314"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41593,19 +42118,19 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23090020</v>
+        <v>23090012</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="324" t="str">
+      <c r="H41" s="332" t="str">
         <f ca="1">H3</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I41" s="324"/>
-      <c r="J41" s="324"/>
-      <c r="K41" s="325"/>
+      <c r="I41" s="332"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="333"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41614,14 +42139,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="328" t="s">
+      <c r="F42" s="336" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="326"/>
-      <c r="I42" s="326"/>
-      <c r="J42" s="326"/>
-      <c r="K42" s="327"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="335"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41630,20 +42155,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="329">
+      <c r="D43" s="337">
         <f ca="1">D5</f>
-        <v>45192</v>
-      </c>
-      <c r="E43" s="330"/>
-      <c r="F43" s="328"/>
+        <v>45184</v>
+      </c>
+      <c r="E43" s="338"/>
+      <c r="F43" s="336"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="331" t="str">
+      <c r="H43" s="339" t="str">
         <f ca="1">H5</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I43" s="331"/>
-      <c r="J43" s="331"/>
-      <c r="K43" s="332"/>
+      <c r="I43" s="339"/>
+      <c r="J43" s="339"/>
+      <c r="K43" s="340"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41652,15 +42177,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="328"/>
+      <c r="F44" s="336"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="333" t="str">
+      <c r="H44" s="341" t="str">
         <f ca="1">H6</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="334"/>
+      <c r="I44" s="341"/>
+      <c r="J44" s="341"/>
+      <c r="K44" s="342"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41671,15 +42196,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>KO 3742</v>
+        <v>KO 3801</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335"/>
-      <c r="K45" s="336"/>
+      <c r="H45" s="343"/>
+      <c r="I45" s="343"/>
+      <c r="J45" s="343"/>
+      <c r="K45" s="344"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41746,25 +42271,25 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GRS</v>
+        <v>LSN</v>
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PENSIL KENKO 2B-6191 HIJAU CAP HITAM</v>
+        <v>GEL PEN KENKO K-1 HITAM</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>110400</v>
+        <v>39600</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
@@ -41776,7 +42301,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>3819840</v>
+        <v>4932576</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -41784,39 +42309,39 @@
       <c r="A50" s="232">
         <v>2</v>
       </c>
-      <c r="B50" s="233">
+      <c r="B50" s="233" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v/>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
-      </c>
-      <c r="D50" s="235">
+        <v/>
+      </c>
+      <c r="D50" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v/>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
-      <c r="H50" s="239">
+      <c r="H50" s="239" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>147600</v>
-      </c>
-      <c r="I50" s="240">
+        <v/>
+      </c>
+      <c r="I50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="241">
+      <c r="K50" s="241" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2553480</v>
+        <v/>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -42404,8 +42929,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="337"/>
-      <c r="K66" s="337"/>
+      <c r="J66" s="345"/>
+      <c r="K66" s="345"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42420,11 +42945,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="338">
+      <c r="J67" s="346">
         <f ca="1">J29</f>
-        <v>6373320</v>
-      </c>
-      <c r="K67" s="339"/>
+        <v>4932576</v>
+      </c>
+      <c r="K67" s="347"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42437,8 +42962,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="340"/>
-      <c r="K68" s="340"/>
+      <c r="J68" s="348"/>
+      <c r="K68" s="348"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42473,8 +42998,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="337"/>
-      <c r="K70" s="337"/>
+      <c r="J70" s="345"/>
+      <c r="K70" s="345"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42493,11 +43018,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="338">
+      <c r="J71" s="346">
         <f ca="1">J33</f>
-        <v>631590.27027027018</v>
-      </c>
-      <c r="K71" s="339"/>
+        <v>488813.83783783775</v>
+      </c>
+      <c r="K71" s="347"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42510,8 +43035,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="337"/>
-      <c r="K72" s="337"/>
+      <c r="J72" s="345"/>
+      <c r="K72" s="345"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42529,7 +43054,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>6373320</v>
+        <v>4932576</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -42561,11 +43086,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="341" t="str">
+      <c r="J75" s="349" t="str">
         <f ca="1">J37</f>
-        <v>RISMA / CONDRO</v>
-      </c>
-      <c r="K75" s="342"/>
+        <v>NOVI / CONDRO</v>
+      </c>
+      <c r="K75" s="350"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42580,11 +43105,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="341" t="str">
+      <c r="J76" s="349" t="str">
         <f ca="1">J38</f>
         <v/>
       </c>
-      <c r="K76" s="342"/>
+      <c r="K76" s="350"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42627,19 +43152,19 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23090020</v>
+        <v>23090012</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="343" t="str">
+      <c r="H79" s="351" t="str">
         <f ca="1">H41</f>
         <v>CV PELITA JAYA</v>
       </c>
-      <c r="I79" s="343"/>
-      <c r="J79" s="343"/>
-      <c r="K79" s="344"/>
+      <c r="I79" s="351"/>
+      <c r="J79" s="351"/>
+      <c r="K79" s="352"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42648,14 +43173,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="347" t="s">
+      <c r="F80" s="355" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="345"/>
-      <c r="I80" s="345"/>
-      <c r="J80" s="345"/>
-      <c r="K80" s="346"/>
+      <c r="H80" s="353"/>
+      <c r="I80" s="353"/>
+      <c r="J80" s="353"/>
+      <c r="K80" s="354"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42664,20 +43189,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="348">
+      <c r="D81" s="356">
         <f ca="1">D43</f>
-        <v>45192</v>
-      </c>
-      <c r="E81" s="349"/>
-      <c r="F81" s="347"/>
+        <v>45184</v>
+      </c>
+      <c r="E81" s="357"/>
+      <c r="F81" s="355"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="350" t="str">
+      <c r="H81" s="358" t="str">
         <f ca="1">H43</f>
         <v>(ANUGERAH SEJAHTERA)</v>
       </c>
-      <c r="I81" s="350"/>
-      <c r="J81" s="350"/>
-      <c r="K81" s="351"/>
+      <c r="I81" s="358"/>
+      <c r="J81" s="358"/>
+      <c r="K81" s="359"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42686,15 +43211,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="347"/>
+      <c r="F82" s="355"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="352" t="str">
+      <c r="H82" s="360" t="str">
         <f ca="1">H44</f>
         <v>PURWOKERTO</v>
       </c>
-      <c r="I82" s="352"/>
-      <c r="J82" s="352"/>
-      <c r="K82" s="353"/>
+      <c r="I82" s="360"/>
+      <c r="J82" s="360"/>
+      <c r="K82" s="361"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42705,15 +43230,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>KO 3742</v>
+        <v>KO 3801</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="354"/>
-      <c r="I83" s="354"/>
-      <c r="J83" s="354"/>
-      <c r="K83" s="355"/>
+      <c r="H83" s="362"/>
+      <c r="I83" s="362"/>
+      <c r="J83" s="362"/>
+      <c r="K83" s="363"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42780,25 +43305,25 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GRS</v>
+        <v>LSN</v>
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PENSIL KENKO 2B-6191 HIJAU CAP HITAM</v>
+        <v>GEL PEN KENKO K-1 HITAM</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>110400</v>
+        <v>39600</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
@@ -42810,7 +43335,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>3819840</v>
+        <v>4932576</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -42818,39 +43343,39 @@
       <c r="A88" s="137">
         <v>2</v>
       </c>
-      <c r="B88" s="138">
+      <c r="B88" s="138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v/>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
-      </c>
-      <c r="D88" s="140">
+        <v/>
+      </c>
+      <c r="D88" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v/>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
-      <c r="H88" s="144">
+      <c r="H88" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>147600</v>
-      </c>
-      <c r="I88" s="145">
+        <v/>
+      </c>
+      <c r="I88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v/>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K88" s="146">
+      <c r="K88" s="146" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2553480</v>
+        <v/>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -43438,8 +43963,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="356"/>
-      <c r="K104" s="356"/>
+      <c r="J104" s="364"/>
+      <c r="K104" s="364"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43454,11 +43979,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="357">
+      <c r="J105" s="365">
         <f ca="1">J67</f>
-        <v>6373320</v>
-      </c>
-      <c r="K105" s="358"/>
+        <v>4932576</v>
+      </c>
+      <c r="K105" s="366"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43471,8 +43996,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="361"/>
-      <c r="K106" s="361"/>
+      <c r="J106" s="369"/>
+      <c r="K106" s="369"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43507,8 +44032,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="356"/>
-      <c r="K108" s="356"/>
+      <c r="J108" s="364"/>
+      <c r="K108" s="364"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43527,11 +44052,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="357">
+      <c r="J109" s="365">
         <f ca="1">J71</f>
-        <v>631590.27027027018</v>
-      </c>
-      <c r="K109" s="358"/>
+        <v>488813.83783783775</v>
+      </c>
+      <c r="K109" s="366"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43544,8 +44069,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="356"/>
-      <c r="K110" s="356"/>
+      <c r="J110" s="364"/>
+      <c r="K110" s="364"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43563,7 +44088,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>6373320</v>
+        <v>4932576</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -43595,11 +44120,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="359" t="str">
+      <c r="J113" s="367" t="str">
         <f ca="1">J75</f>
-        <v>RISMA / CONDRO</v>
-      </c>
-      <c r="K113" s="360"/>
+        <v>NOVI / CONDRO</v>
+      </c>
+      <c r="K113" s="368"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43614,11 +44139,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="359" t="str">
+      <c r="J114" s="367" t="str">
         <f ca="1">J76</f>
         <v/>
       </c>
-      <c r="K114" s="360"/>
+      <c r="K114" s="368"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/BARU/2023/09 SEPTEMBER/KELUAR 09.xlsx
+++ b/BARU/2023/09 SEPTEMBER/KELUAR 09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="pointer">PAJAK!$H$3</definedName>
     <definedName name="ponter">PAJAK!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="309">
   <si>
     <t>Column1</t>
   </si>
@@ -950,6 +950,15 @@
   </si>
   <si>
     <t>GEL PEN JOYKO GP-265 Q-GEL</t>
+  </si>
+  <si>
+    <t>3962</t>
+  </si>
+  <si>
+    <t>PWJK12WPENDEK</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</t>
   </si>
 </sst>
 </file>
@@ -5019,22 +5028,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45198.385227430554" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="269">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45201.619233564816" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="268">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="103" count="30">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="110" count="33">
         <s v=""/>
         <n v="4"/>
         <n v="7"/>
@@ -5060,21 +5069,24 @@
         <n v="84"/>
         <n v="98"/>
         <n v="103"/>
+        <n v="109"/>
+        <n v="108" u="1"/>
         <n v="42" u="1"/>
         <n v="44" u="1"/>
         <n v="46" u="1"/>
         <n v="6" u="1"/>
+        <n v="110" u="1"/>
         <n v="51" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23090001" maxValue="23090024"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23090001" maxValue="23090025"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-09-04T00:00:00" maxDate="2023-09-28T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-09-04T00:00:00" maxDate="2023-10-01T00:00:00"/>
     </cacheField>
     <cacheField name="Column2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="27"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="30"/>
     </cacheField>
     <cacheField name="Column3" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5131,7 +5143,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="103"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="109"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
@@ -5170,7 +5182,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="269">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="268">
   <r>
     <x v="0"/>
     <s v=""/>
@@ -8776,38 +8788,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="scan"/>
-    <e v="#N/A"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="25"/>
+    <n v="23090025"/>
+    <d v="2023-09-30T00:00:00"/>
+    <n v="30"/>
+    <s v="G"/>
+    <s v="3962"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23090025"/>
+    <s v="G 3962"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="576"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="PWJK12WPENDEK"/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)"/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)"/>
+    <n v="6700"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="3376800"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="109"/>
+    <n v="3"/>
+    <n v="3859200"/>
+    <n v="482400"/>
+    <n v="0"/>
+    <n v="482400"/>
+    <n v="3376800"/>
+    <n v="8719200"/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)PCS6700"/>
   </r>
   <r>
     <x v="0"/>
@@ -8820,28 +8832,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="288"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="PWJK12WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <n v="10600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2671200"/>
+    <m/>
+    <m/>
+    <n v="109"/>
+    <n v="3"/>
+    <n v="3052800"/>
+    <n v="381600"/>
+    <n v="0"/>
+    <n v="381600"/>
+    <n v="2671200"/>
+    <s v=""/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS10600"/>
   </r>
   <r>
     <x v="0"/>
@@ -8854,62 +8866,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="144"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="PWJK24WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)"/>
+    <n v="21200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2671200"/>
+    <m/>
+    <m/>
+    <n v="109"/>
+    <n v="3"/>
+    <n v="3052800"/>
+    <n v="381600"/>
+    <n v="0"/>
+    <n v="381600"/>
+    <n v="2671200"/>
+    <s v=""/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)PCS21200"/>
   </r>
   <r>
     <x v="0"/>
@@ -14322,12 +14300,12 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A4:A31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="31">
+      <items count="34">
         <item x="1"/>
-        <item m="1" x="28"/>
+        <item m="1" x="30"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14338,13 +14316,13 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="25"/>
+        <item m="1" x="27"/>
         <item x="12"/>
-        <item m="1" x="26"/>
+        <item m="1" x="28"/>
         <item x="13"/>
-        <item m="1" x="27"/>
+        <item m="1" x="29"/>
         <item x="14"/>
-        <item m="1" x="29"/>
+        <item m="1" x="32"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
@@ -14355,6 +14333,9 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item m="1" x="26"/>
+        <item x="25"/>
+        <item m="1" x="31"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -14394,7 +14375,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="27">
     <i>
       <x/>
     </i>
@@ -14468,7 +14449,10 @@
       <x v="28"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -14501,8 +14485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF272" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
-  <autoFilter ref="A2:AF271"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF271" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+  <autoFilter ref="A2:AF270"/>
   <tableColumns count="32">
     <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
@@ -14958,10 +14942,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF272"/>
+  <dimension ref="A1:AF271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24596,76 +24580,110 @@
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109" s="287" t="str">
+      <c r="A109" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B109" s="287" t="str">
+        <v>109</v>
+      </c>
+      <c r="B109" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C109" s="281" t="str">
+        <v>23090025</v>
+      </c>
+      <c r="C109" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45199</v>
+      </c>
+      <c r="D109" s="292">
+        <v>30</v>
+      </c>
+      <c r="E109" s="280" t="s">
+        <v>245</v>
+      </c>
+      <c r="F109" s="282" t="s">
+        <v>306</v>
+      </c>
+      <c r="G109" s="280" t="s">
+        <v>90</v>
       </c>
       <c r="H109" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23090025</v>
       </c>
       <c r="I109" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 3962</v>
       </c>
       <c r="J109" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K109" s="280">
+        <v>576</v>
+      </c>
+      <c r="L109" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="M109" s="280">
+        <v>2</v>
+      </c>
+      <c r="N109" s="280" t="s">
+        <v>307</v>
       </c>
       <c r="O109" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q109" s="283"/>
-      <c r="R109" s="284"/>
-      <c r="T109" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
+      </c>
+      <c r="P109" s="280" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q109" s="283">
+        <v>6700</v>
+      </c>
+      <c r="R109" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T109" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W109" s="287" t="str">
+        <v>3376800</v>
+      </c>
+      <c r="U109" s="283" t="s">
+        <v>135</v>
+      </c>
+      <c r="W109" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X109" s="287" t="str">
+        <v>109</v>
+      </c>
+      <c r="X109" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y109" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y109" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z109" s="283" t="str">
+        <v>3859200</v>
+      </c>
+      <c r="Z109" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA109" s="283" t="str">
+        <v>482400</v>
+      </c>
+      <c r="AA109" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB109" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC109" s="283" t="str">
+        <v>482400</v>
+      </c>
+      <c r="AC109" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD109" s="283" t="str">
+        <v>3376800</v>
+      </c>
+      <c r="AD109" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>8719200</v>
       </c>
       <c r="AE109" s="283"/>
       <c r="AF109" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)PCS6700</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
@@ -24693,43 +24711,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K110" s="280">
+        <v>288</v>
+      </c>
+      <c r="L110" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="M110" s="280">
+        <v>2</v>
+      </c>
+      <c r="N110" s="280" t="s">
+        <v>269</v>
+      </c>
       <c r="O110" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q110" s="283"/>
-      <c r="R110" s="284"/>
-      <c r="T110" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+      </c>
+      <c r="P110" s="280" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q110" s="283">
+        <v>10600</v>
+      </c>
+      <c r="R110" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T110" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W110" s="287" t="str">
+        <v>2671200</v>
+      </c>
+      <c r="W110" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X110" s="287" t="str">
+        <v>109</v>
+      </c>
+      <c r="X110" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y110" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y110" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z110" s="283" t="str">
+        <v>3052800</v>
+      </c>
+      <c r="Z110" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA110" s="283" t="str">
+        <v>381600</v>
+      </c>
+      <c r="AA110" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB110" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC110" s="283" t="str">
+        <v>381600</v>
+      </c>
+      <c r="AC110" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="AD110" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24738,7 +24775,7 @@
       <c r="AE110" s="283"/>
       <c r="AF110" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS10600</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
@@ -24766,43 +24803,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K111" s="280">
+        <v>144</v>
+      </c>
+      <c r="L111" s="280" t="s">
+        <v>150</v>
+      </c>
+      <c r="M111" s="280">
+        <v>2</v>
+      </c>
+      <c r="N111" s="280" t="s">
+        <v>228</v>
+      </c>
       <c r="O111" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q111" s="283"/>
-      <c r="R111" s="284"/>
-      <c r="T111" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)</v>
+      </c>
+      <c r="P111" s="280" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111" s="283">
+        <v>21200</v>
+      </c>
+      <c r="R111" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T111" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W111" s="287" t="str">
+        <v>2671200</v>
+      </c>
+      <c r="W111" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X111" s="287" t="str">
+        <v>109</v>
+      </c>
+      <c r="X111" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y111" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y111" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z111" s="283" t="str">
+        <v>3052800</v>
+      </c>
+      <c r="Z111" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA111" s="283" t="str">
+        <v>381600</v>
+      </c>
+      <c r="AA111" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB111" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC111" s="283" t="str">
+        <v>381600</v>
+      </c>
+      <c r="AC111" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="AD111" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -24811,7 +24867,7 @@
       <c r="AE111" s="283"/>
       <c r="AF111" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)PCS21200</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
@@ -24843,6 +24899,7 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
+      <c r="P112" s="287"/>
       <c r="Q112" s="283"/>
       <c r="R112" s="284"/>
       <c r="T112" s="283" t="str">
@@ -24916,7 +24973,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P113" s="287"/>
       <c r="Q113" s="283"/>
       <c r="R113" s="284"/>
       <c r="T113" s="283" t="str">
@@ -29414,7 +29470,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
         <v/>
@@ -29443,6 +29499,7 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
+      <c r="P175" s="290"/>
       <c r="Q175" s="283"/>
       <c r="R175" s="284"/>
       <c r="T175" s="283" t="str">
@@ -29487,7 +29544,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
         <v/>
@@ -29516,7 +29573,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P176" s="290"/>
       <c r="Q176" s="283"/>
       <c r="R176" s="284"/>
       <c r="T176" s="283" t="str">
@@ -34262,6 +34318,7 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
+      <c r="P241" s="287"/>
       <c r="Q241" s="283"/>
       <c r="R241" s="284"/>
       <c r="T241" s="283" t="str">
@@ -34335,7 +34392,6 @@
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v/>
       </c>
-      <c r="P242" s="287"/>
       <c r="Q242" s="283"/>
       <c r="R242" s="284"/>
       <c r="T242" s="283" t="str">
@@ -36425,111 +36481,38 @@
       </c>
     </row>
     <row r="271" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A271" s="287" t="str">
-        <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B271" s="287" t="str">
-        <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C271" s="281" t="str">
-        <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
-      </c>
-      <c r="H271" s="287" t="str">
-        <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
-      </c>
-      <c r="I271" s="288" t="str">
-        <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J271" s="287" t="str">
-        <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
-      </c>
-      <c r="O271" s="287" t="str">
-        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q271" s="283"/>
-      <c r="R271" s="284"/>
-      <c r="T271" s="283" t="str">
-        <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W271" s="287" t="str">
-        <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X271" s="287" t="str">
-        <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y271" s="283" t="str">
-        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z271" s="283" t="str">
-        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA271" s="283" t="str">
-        <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB271" s="283" t="str">
-        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC271" s="283" t="str">
-        <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD271" s="283" t="str">
-        <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="AE271" s="283"/>
-      <c r="AF271" s="283" t="str">
-        <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A272" s="304"/>
-      <c r="B272" s="304"/>
-      <c r="C272" s="305"/>
-      <c r="D272" s="306"/>
-      <c r="E272" s="307"/>
-      <c r="F272" s="308"/>
-      <c r="G272" s="307"/>
-      <c r="H272" s="304"/>
-      <c r="I272" s="309"/>
-      <c r="J272" s="304"/>
-      <c r="K272" s="307"/>
-      <c r="L272" s="307"/>
-      <c r="M272" s="307"/>
-      <c r="N272" s="307"/>
-      <c r="O272" s="304"/>
-      <c r="P272" s="307"/>
-      <c r="Q272" s="310"/>
-      <c r="R272" s="311"/>
-      <c r="S272" s="311"/>
-      <c r="T272" s="310"/>
-      <c r="U272" s="310"/>
-      <c r="V272" s="307"/>
-      <c r="W272" s="304"/>
-      <c r="X272" s="304"/>
-      <c r="Y272" s="310"/>
-      <c r="Z272" s="310"/>
-      <c r="AA272" s="310"/>
-      <c r="AB272" s="310"/>
-      <c r="AC272" s="310"/>
-      <c r="AD272" s="310"/>
-      <c r="AE272" s="310"/>
-      <c r="AF272" s="310"/>
+      <c r="A271" s="304"/>
+      <c r="B271" s="304"/>
+      <c r="C271" s="305"/>
+      <c r="D271" s="306"/>
+      <c r="E271" s="307"/>
+      <c r="F271" s="308"/>
+      <c r="G271" s="307"/>
+      <c r="H271" s="304"/>
+      <c r="I271" s="309"/>
+      <c r="J271" s="304"/>
+      <c r="K271" s="307"/>
+      <c r="L271" s="307"/>
+      <c r="M271" s="307"/>
+      <c r="N271" s="307"/>
+      <c r="O271" s="304"/>
+      <c r="P271" s="307"/>
+      <c r="Q271" s="310"/>
+      <c r="R271" s="311"/>
+      <c r="S271" s="311"/>
+      <c r="T271" s="310"/>
+      <c r="U271" s="310"/>
+      <c r="V271" s="307"/>
+      <c r="W271" s="304"/>
+      <c r="X271" s="304"/>
+      <c r="Y271" s="310"/>
+      <c r="Z271" s="310"/>
+      <c r="AA271" s="310"/>
+      <c r="AB271" s="310"/>
+      <c r="AC271" s="310"/>
+      <c r="AD271" s="310"/>
+      <c r="AE271" s="310"/>
+      <c r="AF271" s="310"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P57">
@@ -36549,7 +36532,7 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36619,7 +36602,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="294" t="str">
         <f>"["&amp;H2&amp;".xlsx]Invoice"</f>
@@ -36628,7 +36611,7 @@
       <c r="I3" s="296"/>
       <c r="O3" s="85">
         <f>preview!K1</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
@@ -36731,7 +36714,7 @@
       </c>
       <c r="AA4" s="278">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>170606727</v>
+        <v>179325927</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -36820,7 +36803,7 @@
       </c>
       <c r="AA5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>16906972.945945941</v>
+        <v>17771037.810810804</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -36906,7 +36889,7 @@
       </c>
       <c r="AA6" s="87">
         <f ca="1">(AA4/1.11)*11%</f>
-        <v>16906972.945945945</v>
+        <v>17771037.810810808</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -38715,50 +38698,52 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="291"/>
-      <c r="D29" s="85" t="str">
+      <c r="A29" s="291">
+        <v>109</v>
+      </c>
+      <c r="D29" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>109</v>
       </c>
       <c r="E29" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F29" s="88" t="str">
+        <v>AM 23090025</v>
+      </c>
+      <c r="F29" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45199</v>
       </c>
       <c r="G29" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 3962</v>
       </c>
       <c r="H29" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I29" s="87" t="str">
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="I29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J29" s="87" t="str">
+        <v>9964800</v>
+      </c>
+      <c r="J29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K29" s="87" t="str">
+        <v>1245600</v>
+      </c>
+      <c r="K29" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L29" s="87" t="str">
+        <v>8719200</v>
+      </c>
+      <c r="L29" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M29" s="87" t="str">
+        <v>864064.86486486485</v>
+      </c>
+      <c r="M29" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>8719200</v>
       </c>
       <c r="N29" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O29" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -38773,9 +38758,9 @@
         <f t="shared" si="1"/>
         <v>23090025</v>
       </c>
-      <c r="T29" s="184" t="b">
+      <c r="T29" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U29" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -38795,9 +38780,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="291" t="s">
-        <v>52</v>
-      </c>
+      <c r="A30" s="291"/>
       <c r="D30" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38878,6 +38861,9 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="291" t="s">
+        <v>52</v>
+      </c>
       <c r="D31" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -41017,23 +41003,23 @@
       <c r="F58"/>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>195286250</v>
+        <v>205251050</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>24679523</v>
+        <v>25925123</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>170606727</v>
+        <v>179325927</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>16906972.945945941</v>
+        <v>17771037.810810804</v>
       </c>
       <c r="M58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>170606727</v>
+        <v>179325927</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -41083,7 +41069,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -41097,22 +41083,19 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">INDEX(Table1[Column5],newestIdRow-offset)</f>
-        <v>ANUGERAH</v>
+        <v>REJOAGUNG</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" s="312" t="s">
         <v>71</v>
       </c>
       <c r="J1" s="312"/>
-      <c r="K1">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -41136,14 +41119,14 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23090012</v>
+        <v>23090025</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="319" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>CV PELITA JAYA</v>
+        <v>LILY JULIAWATI</v>
       </c>
       <c r="I3" s="319"/>
       <c r="J3" s="319"/>
@@ -41174,14 +41157,14 @@
       <c r="C5" s="7"/>
       <c r="D5" s="324">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45184</v>
+        <v>45199</v>
       </c>
       <c r="E5" s="325"/>
       <c r="F5" s="323"/>
       <c r="G5" s="17"/>
       <c r="H5" s="326" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
+        <v>(REJO AGUNG)</v>
       </c>
       <c r="I5" s="326"/>
       <c r="J5" s="326"/>
@@ -41198,7 +41181,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="328" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PURWOKERTO</v>
+        <v>JOMBANG</v>
       </c>
       <c r="I6" s="328"/>
       <c r="J6" s="328"/>
@@ -41213,7 +41196,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 3801</v>
+        <v>G 3962</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
@@ -41284,29 +41267,29 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A11-1))))</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>GEL PEN KENKO K-1 HITAM</v>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>39600</v>
+        <v>6700</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -41314,7 +41297,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>4932576</v>
+        <v>3376800</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -41322,39 +41305,39 @@
       <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="45">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>288</v>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A12-1))))</f>
-        <v/>
-      </c>
-      <c r="D12" s="46" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D12" s="46">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="50" t="str">
+      <c r="H12" s="50">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="51" t="str">
+        <v>10600</v>
+      </c>
+      <c r="I12" s="51">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="52">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -41362,39 +41345,39 @@
       <c r="A13" s="44">
         <v>3</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A13-1))))</f>
-        <v/>
-      </c>
-      <c r="D13" s="46" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D13" s="46">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E13" s="47" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="50" t="str">
+      <c r="H13" s="50">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v/>
-      </c>
-      <c r="I13" s="51" t="str">
+        <v>21200</v>
+      </c>
+      <c r="I13" s="51">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="52">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -41955,7 +41938,7 @@
       </c>
       <c r="J29" s="315">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="K29" s="316"/>
       <c r="L29" s="35"/>
@@ -42008,7 +41991,7 @@
       </c>
       <c r="J33" s="315">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>488813.83783783775</v>
+        <v>864064.86486486485</v>
       </c>
       <c r="K33" s="316"/>
       <c r="L33" s="72"/>
@@ -42034,7 +42017,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -42118,7 +42101,7 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23090012</v>
+        <v>23090025</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
@@ -42126,7 +42109,7 @@
       </c>
       <c r="H41" s="332" t="str">
         <f ca="1">H3</f>
-        <v>CV PELITA JAYA</v>
+        <v>LILY JULIAWATI</v>
       </c>
       <c r="I41" s="332"/>
       <c r="J41" s="332"/>
@@ -42157,14 +42140,14 @@
       <c r="C43" s="192"/>
       <c r="D43" s="337">
         <f ca="1">D5</f>
-        <v>45184</v>
+        <v>45199</v>
       </c>
       <c r="E43" s="338"/>
       <c r="F43" s="336"/>
       <c r="G43" s="203"/>
       <c r="H43" s="339" t="str">
         <f ca="1">H5</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
+        <v>(REJO AGUNG)</v>
       </c>
       <c r="I43" s="339"/>
       <c r="J43" s="339"/>
@@ -42181,7 +42164,7 @@
       <c r="G44" s="203"/>
       <c r="H44" s="341" t="str">
         <f ca="1">H6</f>
-        <v>PURWOKERTO</v>
+        <v>JOMBANG</v>
       </c>
       <c r="I44" s="341"/>
       <c r="J44" s="341"/>
@@ -42196,7 +42179,7 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>KO 3801</v>
+        <v>G 3962</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
@@ -42271,29 +42254,29 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GEL PEN KENKO K-1 HITAM</v>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>39600</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -42301,7 +42284,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>4932576</v>
+        <v>3376800</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -42309,39 +42292,39 @@
       <c r="A50" s="232">
         <v>2</v>
       </c>
-      <c r="B50" s="233" t="str">
+      <c r="B50" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>288</v>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D50" s="235" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D50" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
-      <c r="H50" s="239" t="str">
+      <c r="H50" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="240" t="str">
+        <v>10600</v>
+      </c>
+      <c r="I50" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="241" t="str">
+      <c r="K50" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -42349,39 +42332,39 @@
       <c r="A51" s="232">
         <v>3</v>
       </c>
-      <c r="B51" s="233" t="str">
+      <c r="B51" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C51" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D51" s="235" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D51" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)</v>
       </c>
       <c r="F51" s="237"/>
       <c r="G51" s="238"/>
-      <c r="H51" s="239" t="str">
+      <c r="H51" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="240" t="str">
+        <v>21200</v>
+      </c>
+      <c r="I51" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K51" s="241" t="str">
+      <c r="K51" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L51" s="223"/>
     </row>
@@ -42947,7 +42930,7 @@
       </c>
       <c r="J67" s="346">
         <f ca="1">J29</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="K67" s="347"/>
       <c r="L67" s="223"/>
@@ -43020,7 +43003,7 @@
       </c>
       <c r="J71" s="346">
         <f ca="1">J33</f>
-        <v>488813.83783783775</v>
+        <v>864064.86486486485</v>
       </c>
       <c r="K71" s="347"/>
       <c r="L71" s="261"/>
@@ -43054,7 +43037,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -43152,7 +43135,7 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23090012</v>
+        <v>23090025</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
@@ -43160,7 +43143,7 @@
       </c>
       <c r="H79" s="351" t="str">
         <f ca="1">H41</f>
-        <v>CV PELITA JAYA</v>
+        <v>LILY JULIAWATI</v>
       </c>
       <c r="I79" s="351"/>
       <c r="J79" s="351"/>
@@ -43191,14 +43174,14 @@
       <c r="C81" s="97"/>
       <c r="D81" s="356">
         <f ca="1">D43</f>
-        <v>45184</v>
+        <v>45199</v>
       </c>
       <c r="E81" s="357"/>
       <c r="F81" s="355"/>
       <c r="G81" s="108"/>
       <c r="H81" s="358" t="str">
         <f ca="1">H43</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
+        <v>(REJO AGUNG)</v>
       </c>
       <c r="I81" s="358"/>
       <c r="J81" s="358"/>
@@ -43215,7 +43198,7 @@
       <c r="G82" s="108"/>
       <c r="H82" s="360" t="str">
         <f ca="1">H44</f>
-        <v>PURWOKERTO</v>
+        <v>JOMBANG</v>
       </c>
       <c r="I82" s="360"/>
       <c r="J82" s="360"/>
@@ -43230,7 +43213,7 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>KO 3801</v>
+        <v>G 3962</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
@@ -43305,29 +43288,29 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GEL PEN KENKO K-1 HITAM</v>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>39600</v>
+        <v>6700</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43335,7 +43318,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>4932576</v>
+        <v>3376800</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -43343,39 +43326,39 @@
       <c r="A88" s="137">
         <v>2</v>
       </c>
-      <c r="B88" s="138" t="str">
+      <c r="B88" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>288</v>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D88" s="140" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D88" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
-      <c r="H88" s="144" t="str">
+      <c r="H88" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I88" s="145" t="str">
+        <v>10600</v>
+      </c>
+      <c r="I88" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K88" s="146" t="str">
+      <c r="K88" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -43383,39 +43366,39 @@
       <c r="A89" s="137">
         <v>3</v>
       </c>
-      <c r="B89" s="138" t="str">
+      <c r="B89" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C89" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D89" s="140" t="str">
+        <v>PCS</v>
+      </c>
+      <c r="D89" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E89" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)</v>
       </c>
       <c r="F89" s="142"/>
       <c r="G89" s="143"/>
-      <c r="H89" s="144" t="str">
+      <c r="H89" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I89" s="145" t="str">
+        <v>21200</v>
+      </c>
+      <c r="I89" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K89" s="146" t="str">
+      <c r="K89" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>2671200</v>
       </c>
       <c r="L89" s="128"/>
     </row>
@@ -43981,7 +43964,7 @@
       </c>
       <c r="J105" s="365">
         <f ca="1">J67</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="K105" s="366"/>
       <c r="L105" s="128"/>
@@ -44054,7 +44037,7 @@
       </c>
       <c r="J109" s="365">
         <f ca="1">J71</f>
-        <v>488813.83783783775</v>
+        <v>864064.86486486485</v>
       </c>
       <c r="K109" s="366"/>
       <c r="L109" s="166"/>
@@ -44088,7 +44071,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>4932576</v>
+        <v>8719200</v>
       </c>
       <c r="L111" s="166"/>
     </row>
